--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4672" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +373,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +420,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +466,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -563,10 +575,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -610,28 +622,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="2">
+      <c r="C17" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -656,28 +668,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -765,10 +777,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -812,28 +824,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="2">
+      <c r="C24" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -858,28 +870,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -938,10 +950,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -985,28 +997,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="2">
+      <c r="C30" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1031,28 +1043,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="2">
+      <c r="I32" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1140,10 +1152,10 @@
       <c r="I35">
         <f>((C35-C34)^2+(D35- D34)^2)^.5</f>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="2" t="s">
+      <c r="J35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="n">
@@ -1187,28 +1199,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="2">
+      <c r="A37" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C37" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s" s="2">
+      <c r="C37" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1233,28 +1245,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C39" t="s" s="2">
+      <c r="C39" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D39" t="s" s="2">
+      <c r="D39" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I39" t="s" s="2">
+      <c r="I39" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1342,10 +1354,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="2" t="s">
+      <c r="J42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1389,28 +1401,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="2">
+      <c r="C44" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1435,28 +1447,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="2">
+      <c r="I46" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1515,10 +1527,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="2" t="s">
+      <c r="J48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1562,28 +1574,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="2">
+      <c r="C50" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1608,28 +1620,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1688,10 +1700,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="2" t="s">
+      <c r="J54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1735,28 +1747,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="2">
+      <c r="C56" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1781,28 +1793,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="2">
+      <c r="I58" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1861,10 +1873,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="2" t="s">
+      <c r="J60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1908,28 +1920,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="2">
+      <c r="A62" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="2">
+      <c r="C62" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1954,28 +1966,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="2">
+      <c r="I64" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2063,10 +2075,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="2" t="s">
+      <c r="J67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2110,28 +2122,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="2">
+      <c r="C69" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2156,28 +2168,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2236,10 +2248,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K73" s="2" t="s">
+      <c r="J73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2283,28 +2295,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="2">
+      <c r="A75" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s" s="2">
+      <c r="C75" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2329,28 +2341,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="2">
+      <c r="I77" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2409,10 +2421,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="2" t="s">
+      <c r="J79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2456,28 +2468,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="2">
+      <c r="C81" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2502,28 +2514,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2582,10 +2594,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="2" t="s">
+      <c r="J85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2629,28 +2641,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="2">
+      <c r="C87" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2675,28 +2687,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2784,10 +2796,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2831,28 +2843,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="2">
+      <c r="C94" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2877,28 +2889,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2957,10 +2969,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3004,28 +3016,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="2">
+      <c r="C100" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3050,28 +3062,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3159,10 +3171,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="2" t="s">
+      <c r="J105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3206,28 +3218,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="2">
+      <c r="C107" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3252,28 +3264,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3390,10 +3402,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="2" t="s">
+      <c r="J113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3437,28 +3449,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="2">
+      <c r="C115" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3483,28 +3495,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="2">
+      <c r="I117" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3563,10 +3575,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="2" t="s">
+      <c r="J119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3610,28 +3622,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="2">
+      <c r="A121" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="2">
+      <c r="C121" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3656,28 +3668,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="2">
+      <c r="I123" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3736,10 +3748,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="2" t="s">
+      <c r="J125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3783,28 +3795,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="2">
+      <c r="C127" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3829,28 +3841,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3909,10 +3921,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="2" t="s">
+      <c r="J131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3956,28 +3968,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="2">
+      <c r="C133" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4002,28 +4014,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4082,10 +4094,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="2" t="s">
+      <c r="J137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4129,28 +4141,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="2">
+      <c r="A139" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="2">
+      <c r="C139" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4175,28 +4187,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="C141" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="2">
+      <c r="D141" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="2">
+      <c r="I141" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4255,10 +4267,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="2" t="s">
+      <c r="J143" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4302,28 +4314,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="2">
+      <c r="A145" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="2">
+      <c r="C145" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4348,28 +4360,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="2">
+      <c r="I147" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4457,10 +4469,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4504,28 +4516,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4550,28 +4562,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4630,10 +4642,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="2" t="s">
+      <c r="J156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4677,28 +4689,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="2">
+      <c r="C158" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4723,28 +4735,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4861,10 +4873,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="2" t="s">
+      <c r="J164" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4908,28 +4920,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4954,28 +4966,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5034,10 +5046,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5081,28 +5093,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5127,28 +5139,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5207,10 +5219,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5254,28 +5266,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5300,28 +5312,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5380,10 +5392,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="2" t="s">
+      <c r="J182" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5427,28 +5439,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="2">
+      <c r="A184" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="2">
+      <c r="C184" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5473,28 +5485,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="C186" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="2">
+      <c r="D186" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="2">
+      <c r="I186" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5553,10 +5565,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="2" t="s">
+      <c r="J188" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5600,28 +5612,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="2">
+      <c r="A190" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="2">
+      <c r="C190" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5646,28 +5658,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="C192" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="2">
+      <c r="D192" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="2">
+      <c r="I192" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5726,10 +5738,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="2" t="s">
+      <c r="J194" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5773,28 +5785,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="2">
+      <c r="A196" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="2">
+      <c r="C196" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5819,28 +5831,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="2">
+      <c r="C198" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="2">
+      <c r="D198" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="2">
+      <c r="I198" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5899,10 +5911,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="2" t="s">
+      <c r="J200" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5946,28 +5958,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="2">
+      <c r="A202" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="2">
+      <c r="C202" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5992,28 +6004,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="2">
+      <c r="C204" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="2">
+      <c r="D204" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="2">
+      <c r="I204" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6101,10 +6113,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="2" t="s">
+      <c r="J207" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6148,28 +6160,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="2">
+      <c r="A209" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="2">
+      <c r="C209" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6194,28 +6206,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="2">
+      <c r="C211" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="2">
+      <c r="D211" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="2">
+      <c r="I211" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6274,10 +6286,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="2" t="s">
+      <c r="J213" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6321,28 +6333,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="2">
+      <c r="A215" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="2">
+      <c r="C215" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6367,28 +6379,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="2">
+      <c r="C217" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="2">
+      <c r="D217" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="2">
+      <c r="I217" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6447,10 +6459,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="2" t="s">
+      <c r="J219" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6494,28 +6506,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="2">
+      <c r="A221" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="2">
+      <c r="C221" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6540,28 +6552,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="2">
+      <c r="C223" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="2">
+      <c r="D223" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="2">
+      <c r="I223" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6707,10 +6719,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="2" t="s">
+      <c r="J228" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6754,28 +6766,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="2">
+      <c r="A230" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="2">
+      <c r="C230" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6800,28 +6812,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="2">
+      <c r="C232" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="2">
+      <c r="D232" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="2">
+      <c r="I232" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6880,10 +6892,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="2" t="s">
+      <c r="J234" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6927,28 +6939,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="2">
+      <c r="A236" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="2">
+      <c r="C236" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6973,28 +6985,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="2">
+      <c r="C238" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="2">
+      <c r="D238" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="2">
+      <c r="I238" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7053,10 +7065,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="2" t="s">
+      <c r="J240" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7100,28 +7112,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="2">
+      <c r="A242" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="2">
+      <c r="C242" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7146,28 +7158,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="2">
+      <c r="C244" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="2">
+      <c r="D244" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="2">
+      <c r="I244" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7226,10 +7238,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="2" t="s">
+      <c r="J246" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7273,28 +7285,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="2">
+      <c r="A248" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="2">
+      <c r="C248" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7319,28 +7331,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="2">
+      <c r="C250" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="2">
+      <c r="D250" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="2">
+      <c r="I250" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7399,10 +7411,10 @@
       <c r="I252">
         <f>((C252-C251)^2+(D252- D251)^2)^.5</f>
       </c>
-      <c r="J252" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K252" s="2" t="s">
+      <c r="J252" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L252" t="n">
@@ -7446,28 +7458,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="2">
+      <c r="A254" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C254" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D254" t="s" s="2">
+      <c r="C254" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7492,28 +7504,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C256" t="s" s="2">
+      <c r="C256" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D256" t="s" s="2">
+      <c r="D256" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I256" t="s" s="2">
+      <c r="I256" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7630,10 +7642,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="2" t="s">
+      <c r="J260" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7677,28 +7689,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="2">
+      <c r="A262" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="2">
+      <c r="C262" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7723,28 +7735,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="2">
+      <c r="C264" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="2">
+      <c r="D264" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="2">
+      <c r="I264" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7803,10 +7815,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="2" t="s">
+      <c r="J266" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7850,28 +7862,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="2">
+      <c r="A268" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="2">
+      <c r="C268" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7896,28 +7908,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="2">
+      <c r="C270" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="2">
+      <c r="D270" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="2">
+      <c r="I270" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7976,10 +7988,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="2" t="s">
+      <c r="J272" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8023,28 +8035,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="2">
+      <c r="A274" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="2">
+      <c r="C274" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8069,28 +8081,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="2">
+      <c r="C276" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="2">
+      <c r="D276" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="2">
+      <c r="I276" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8149,10 +8161,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="2" t="s">
+      <c r="J278" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8196,28 +8208,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="2">
+      <c r="A280" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="2">
+      <c r="B280" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="2">
+      <c r="C280" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="2">
+      <c r="E280" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="2">
+      <c r="F280" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="2">
+      <c r="G280" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="2">
+      <c r="H280" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8242,28 +8254,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="2">
+      <c r="C282" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="2">
+      <c r="D282" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="2">
+      <c r="I282" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8351,10 +8363,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="2" t="s">
+      <c r="J285" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8398,28 +8410,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="2">
+      <c r="A287" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="2">
+      <c r="B287" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="2">
+      <c r="C287" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="2">
+      <c r="E287" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="2">
+      <c r="F287" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="2">
+      <c r="G287" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="2">
+      <c r="H287" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8444,28 +8456,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="2">
+      <c r="B289" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="2">
+      <c r="C289" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="2">
+      <c r="D289" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="2">
+      <c r="E289" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="2">
+      <c r="F289" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="2">
+      <c r="G289" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="2">
+      <c r="H289" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="2">
+      <c r="I289" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8524,10 +8536,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="2" t="s">
+      <c r="J291" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
@@ -8571,28 +8583,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s" s="2">
+      <c r="A293" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B293" t="s" s="2">
+      <c r="B293" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C293" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D293" t="s" s="2">
+      <c r="C293" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E293" t="s" s="2">
+      <c r="E293" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F293" t="s" s="2">
+      <c r="F293" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G293" t="s" s="2">
+      <c r="G293" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H293" t="s" s="2">
+      <c r="H293" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8617,28 +8629,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="B295" t="s" s="2">
+      <c r="B295" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C295" t="s" s="2">
+      <c r="C295" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D295" t="s" s="2">
+      <c r="D295" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E295" t="s" s="2">
+      <c r="E295" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F295" t="s" s="2">
+      <c r="F295" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G295" t="s" s="2">
+      <c r="G295" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H295" t="s" s="2">
+      <c r="H295" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I295" t="s" s="2">
+      <c r="I295" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8697,10 +8709,10 @@
       <c r="I297">
         <f>((C297-C296)^2+(D297- D296)^2)^.5</f>
       </c>
-      <c r="J297" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K297" s="2" t="s">
+      <c r="J297" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K297" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L297" t="n">
@@ -8744,28 +8756,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s" s="2">
+      <c r="A299" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C299" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D299" t="s" s="2">
+      <c r="C299" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8790,28 +8802,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="s" s="2">
+      <c r="B301" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C301" t="s" s="2">
+      <c r="C301" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D301" t="s" s="2">
+      <c r="D301" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E301" t="s" s="2">
+      <c r="E301" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F301" t="s" s="2">
+      <c r="F301" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G301" t="s" s="2">
+      <c r="G301" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H301" t="s" s="2">
+      <c r="H301" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I301" t="s" s="2">
+      <c r="I301" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8870,10 +8882,10 @@
       <c r="I303">
         <f>((C303-C302)^2+(D303- D302)^2)^.5</f>
       </c>
-      <c r="J303" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K303" s="2" t="s">
+      <c r="J303" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K303" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L303" t="n">
@@ -8917,28 +8929,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="2">
+      <c r="A305" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B305" t="s" s="2">
+      <c r="B305" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C305" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D305" t="s" s="2">
+      <c r="C305" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E305" t="s" s="2">
+      <c r="E305" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F305" t="s" s="2">
+      <c r="F305" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G305" t="s" s="2">
+      <c r="G305" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H305" t="s" s="2">
+      <c r="H305" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8963,28 +8975,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="2">
+      <c r="B307" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C307" t="s" s="2">
+      <c r="C307" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D307" t="s" s="2">
+      <c r="D307" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E307" t="s" s="2">
+      <c r="E307" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F307" t="s" s="2">
+      <c r="F307" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G307" t="s" s="2">
+      <c r="G307" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H307" t="s" s="2">
+      <c r="H307" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I307" t="s" s="2">
+      <c r="I307" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9043,10 +9055,10 @@
       <c r="I309">
         <f>((C309-C308)^2+(D309- D308)^2)^.5</f>
       </c>
-      <c r="J309" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K309" s="2" t="s">
+      <c r="J309" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K309" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L309" t="n">
@@ -9090,28 +9102,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="2">
+      <c r="A311" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B311" t="s" s="2">
+      <c r="B311" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C311" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D311" t="s" s="2">
+      <c r="C311" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E311" t="s" s="2">
+      <c r="E311" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F311" t="s" s="2">
+      <c r="F311" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G311" t="s" s="2">
+      <c r="G311" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H311" t="s" s="2">
+      <c r="H311" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9136,28 +9148,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="B313" t="s" s="2">
+      <c r="B313" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C313" t="s" s="2">
+      <c r="C313" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D313" t="s" s="2">
+      <c r="D313" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E313" t="s" s="2">
+      <c r="E313" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F313" t="s" s="2">
+      <c r="F313" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G313" t="s" s="2">
+      <c r="G313" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H313" t="s" s="2">
+      <c r="H313" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I313" t="s" s="2">
+      <c r="I313" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9216,10 +9228,10 @@
       <c r="I315">
         <f>((C315-C314)^2+(D315- D314)^2)^.5</f>
       </c>
-      <c r="J315" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K315" s="2" t="s">
+      <c r="J315" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K315" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L315" t="n">
@@ -9263,28 +9275,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="s" s="2">
+      <c r="A317" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B317" t="s" s="2">
+      <c r="B317" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C317" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D317" t="s" s="2">
+      <c r="C317" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D317" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E317" t="s" s="2">
+      <c r="E317" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F317" t="s" s="2">
+      <c r="F317" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G317" t="s" s="2">
+      <c r="G317" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H317" t="s" s="2">
+      <c r="H317" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9309,28 +9321,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="B319" t="s" s="2">
+      <c r="B319" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C319" t="s" s="2">
+      <c r="C319" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D319" t="s" s="2">
+      <c r="D319" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E319" t="s" s="2">
+      <c r="E319" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F319" t="s" s="2">
+      <c r="F319" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G319" t="s" s="2">
+      <c r="G319" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H319" t="s" s="2">
+      <c r="H319" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I319" t="s" s="2">
+      <c r="I319" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9389,10 +9401,10 @@
       <c r="I321">
         <f>((C321-C320)^2+(D321- D320)^2)^.5</f>
       </c>
-      <c r="J321" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K321" s="2" t="s">
+      <c r="J321" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K321" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L321" t="n">
@@ -9436,28 +9448,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="s" s="2">
+      <c r="A323" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B323" t="s" s="2">
+      <c r="B323" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C323" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D323" t="s" s="2">
+      <c r="C323" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D323" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E323" t="s" s="2">
+      <c r="E323" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F323" t="s" s="2">
+      <c r="F323" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G323" t="s" s="2">
+      <c r="G323" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H323" t="s" s="2">
+      <c r="H323" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9482,28 +9494,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="B325" t="s" s="2">
+      <c r="B325" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C325" t="s" s="2">
+      <c r="C325" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D325" t="s" s="2">
+      <c r="D325" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E325" t="s" s="2">
+      <c r="E325" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F325" t="s" s="2">
+      <c r="F325" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G325" t="s" s="2">
+      <c r="G325" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H325" t="s" s="2">
+      <c r="H325" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I325" t="s" s="2">
+      <c r="I325" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9591,10 +9603,10 @@
       <c r="I328">
         <f>((C328-C327)^2+(D328- D327)^2)^.5</f>
       </c>
-      <c r="J328" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K328" s="2" t="s">
+      <c r="J328" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K328" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L328" t="n">
@@ -9638,28 +9650,28 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="s" s="2">
+      <c r="A330" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B330" t="s" s="2">
+      <c r="B330" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C330" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D330" t="s" s="2">
+      <c r="C330" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D330" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E330" t="s" s="2">
+      <c r="E330" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F330" t="s" s="2">
+      <c r="F330" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G330" t="s" s="2">
+      <c r="G330" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H330" t="s" s="2">
+      <c r="H330" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9684,28 +9696,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="B332" t="s" s="2">
+      <c r="B332" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C332" t="s" s="2">
+      <c r="C332" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D332" t="s" s="2">
+      <c r="D332" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E332" t="s" s="2">
+      <c r="E332" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F332" t="s" s="2">
+      <c r="F332" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G332" t="s" s="2">
+      <c r="G332" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H332" t="s" s="2">
+      <c r="H332" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I332" t="s" s="2">
+      <c r="I332" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9764,10 +9776,10 @@
       <c r="I334">
         <f>((C334-C333)^2+(D334- D333)^2)^.5</f>
       </c>
-      <c r="J334" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K334" s="2" t="s">
+      <c r="J334" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K334" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L334" t="n">
@@ -9811,28 +9823,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="s" s="2">
+      <c r="A336" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B336" t="s" s="2">
+      <c r="B336" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C336" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D336" t="s" s="2">
+      <c r="C336" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D336" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E336" t="s" s="2">
+      <c r="E336" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F336" t="s" s="2">
+      <c r="F336" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G336" t="s" s="2">
+      <c r="G336" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H336" t="s" s="2">
+      <c r="H336" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9857,28 +9869,28 @@
       </c>
     </row>
     <row r="338">
-      <c r="B338" t="s" s="2">
+      <c r="B338" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C338" t="s" s="2">
+      <c r="C338" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D338" t="s" s="2">
+      <c r="D338" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E338" t="s" s="2">
+      <c r="E338" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F338" t="s" s="2">
+      <c r="F338" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G338" t="s" s="2">
+      <c r="G338" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H338" t="s" s="2">
+      <c r="H338" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I338" t="s" s="2">
+      <c r="I338" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9966,10 +9978,10 @@
       <c r="I341">
         <f>((C341-C340)^2+(D341- D340)^2)^.5</f>
       </c>
-      <c r="J341" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K341" s="2" t="s">
+      <c r="J341" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K341" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L341" t="n">
@@ -10013,28 +10025,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="s" s="2">
+      <c r="A343" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B343" t="s" s="2">
+      <c r="B343" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C343" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D343" t="s" s="2">
+      <c r="C343" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D343" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E343" t="s" s="2">
+      <c r="E343" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F343" t="s" s="2">
+      <c r="F343" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G343" t="s" s="2">
+      <c r="G343" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H343" t="s" s="2">
+      <c r="H343" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10059,28 +10071,28 @@
       </c>
     </row>
     <row r="345">
-      <c r="B345" t="s" s="2">
+      <c r="B345" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C345" t="s" s="2">
+      <c r="C345" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D345" t="s" s="2">
+      <c r="D345" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E345" t="s" s="2">
+      <c r="E345" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F345" t="s" s="2">
+      <c r="F345" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G345" t="s" s="2">
+      <c r="G345" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H345" t="s" s="2">
+      <c r="H345" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I345" t="s" s="2">
+      <c r="I345" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10255,10 +10267,10 @@
       <c r="I351">
         <f>((C351-C350)^2+(D351- D350)^2)^.5</f>
       </c>
-      <c r="J351" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K351" s="2" t="s">
+      <c r="J351" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K351" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L351" t="n">
@@ -10302,28 +10314,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="s" s="2">
+      <c r="A353" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B353" t="s" s="2">
+      <c r="B353" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C353" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D353" t="s" s="2">
+      <c r="C353" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D353" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E353" t="s" s="2">
+      <c r="E353" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F353" t="s" s="2">
+      <c r="F353" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G353" t="s" s="2">
+      <c r="G353" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H353" t="s" s="2">
+      <c r="H353" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10348,28 +10360,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="B355" t="s" s="2">
+      <c r="B355" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C355" t="s" s="2">
+      <c r="C355" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D355" t="s" s="2">
+      <c r="D355" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E355" t="s" s="2">
+      <c r="E355" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F355" t="s" s="2">
+      <c r="F355" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G355" t="s" s="2">
+      <c r="G355" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H355" t="s" s="2">
+      <c r="H355" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I355" t="s" s="2">
+      <c r="I355" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10486,10 +10498,10 @@
       <c r="I359">
         <f>((C359-C358)^2+(D359- D358)^2)^.5</f>
       </c>
-      <c r="J359" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K359" s="2" t="s">
+      <c r="J359" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K359" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L359" t="n">
@@ -10533,28 +10545,28 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="s" s="2">
+      <c r="A361" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B361" t="s" s="2">
+      <c r="B361" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C361" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D361" t="s" s="2">
+      <c r="C361" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D361" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E361" t="s" s="2">
+      <c r="E361" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F361" t="s" s="2">
+      <c r="F361" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G361" t="s" s="2">
+      <c r="G361" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H361" t="s" s="2">
+      <c r="H361" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10579,28 +10591,28 @@
       </c>
     </row>
     <row r="363">
-      <c r="B363" t="s" s="2">
+      <c r="B363" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C363" t="s" s="2">
+      <c r="C363" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D363" t="s" s="2">
+      <c r="D363" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E363" t="s" s="2">
+      <c r="E363" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F363" t="s" s="2">
+      <c r="F363" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G363" t="s" s="2">
+      <c r="G363" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H363" t="s" s="2">
+      <c r="H363" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I363" t="s" s="2">
+      <c r="I363" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10688,10 +10700,10 @@
       <c r="I366">
         <f>((C366-C365)^2+(D366- D365)^2)^.5</f>
       </c>
-      <c r="J366" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K366" s="2" t="s">
+      <c r="J366" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K366" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L366" t="n">
@@ -10735,28 +10747,28 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="s" s="2">
+      <c r="A368" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B368" t="s" s="2">
+      <c r="B368" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C368" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D368" t="s" s="2">
+      <c r="C368" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D368" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E368" t="s" s="2">
+      <c r="E368" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F368" t="s" s="2">
+      <c r="F368" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G368" t="s" s="2">
+      <c r="G368" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H368" t="s" s="2">
+      <c r="H368" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10781,28 +10793,28 @@
       </c>
     </row>
     <row r="370">
-      <c r="B370" t="s" s="2">
+      <c r="B370" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C370" t="s" s="2">
+      <c r="C370" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D370" t="s" s="2">
+      <c r="D370" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E370" t="s" s="2">
+      <c r="E370" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F370" t="s" s="2">
+      <c r="F370" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G370" t="s" s="2">
+      <c r="G370" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H370" t="s" s="2">
+      <c r="H370" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I370" t="s" s="2">
+      <c r="I370" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10919,10 +10931,10 @@
       <c r="I374">
         <f>((C374-C373)^2+(D374- D373)^2)^.5</f>
       </c>
-      <c r="J374" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K374" s="2" t="s">
+      <c r="J374" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K374" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L374" t="n">
@@ -10966,28 +10978,28 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" t="s" s="2">
+      <c r="A376" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B376" t="s" s="2">
+      <c r="B376" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C376" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D376" t="s" s="2">
+      <c r="C376" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D376" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E376" t="s" s="2">
+      <c r="E376" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F376" t="s" s="2">
+      <c r="F376" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G376" t="s" s="2">
+      <c r="G376" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H376" t="s" s="2">
+      <c r="H376" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11012,28 +11024,28 @@
       </c>
     </row>
     <row r="378">
-      <c r="B378" t="s" s="2">
+      <c r="B378" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C378" t="s" s="2">
+      <c r="C378" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D378" t="s" s="2">
+      <c r="D378" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E378" t="s" s="2">
+      <c r="E378" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F378" t="s" s="2">
+      <c r="F378" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G378" t="s" s="2">
+      <c r="G378" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H378" t="s" s="2">
+      <c r="H378" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I378" t="s" s="2">
+      <c r="I378" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11092,10 +11104,10 @@
       <c r="I380">
         <f>((C380-C379)^2+(D380- D379)^2)^.5</f>
       </c>
-      <c r="J380" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K380" s="2" t="s">
+      <c r="J380" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K380" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L380" t="n">
@@ -11139,28 +11151,28 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="s" s="2">
+      <c r="A382" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B382" t="s" s="2">
+      <c r="B382" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C382" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D382" t="s" s="2">
+      <c r="C382" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D382" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E382" t="s" s="2">
+      <c r="E382" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F382" t="s" s="2">
+      <c r="F382" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G382" t="s" s="2">
+      <c r="G382" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H382" t="s" s="2">
+      <c r="H382" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11185,28 +11197,28 @@
       </c>
     </row>
     <row r="384">
-      <c r="B384" t="s" s="2">
+      <c r="B384" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C384" t="s" s="2">
+      <c r="C384" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D384" t="s" s="2">
+      <c r="D384" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E384" t="s" s="2">
+      <c r="E384" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F384" t="s" s="2">
+      <c r="F384" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G384" t="s" s="2">
+      <c r="G384" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H384" t="s" s="2">
+      <c r="H384" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I384" t="s" s="2">
+      <c r="I384" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11265,10 +11277,10 @@
       <c r="I386">
         <f>((C386-C385)^2+(D386- D385)^2)^.5</f>
       </c>
-      <c r="J386" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K386" s="2" t="s">
+      <c r="J386" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K386" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L386" t="n">
@@ -11312,28 +11324,28 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="s" s="2">
+      <c r="A388" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B388" t="s" s="2">
+      <c r="B388" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C388" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D388" t="s" s="2">
+      <c r="C388" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D388" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E388" t="s" s="2">
+      <c r="E388" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F388" t="s" s="2">
+      <c r="F388" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G388" t="s" s="2">
+      <c r="G388" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H388" t="s" s="2">
+      <c r="H388" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11358,28 +11370,28 @@
       </c>
     </row>
     <row r="390">
-      <c r="B390" t="s" s="2">
+      <c r="B390" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C390" t="s" s="2">
+      <c r="C390" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D390" t="s" s="2">
+      <c r="D390" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E390" t="s" s="2">
+      <c r="E390" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F390" t="s" s="2">
+      <c r="F390" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G390" t="s" s="2">
+      <c r="G390" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H390" t="s" s="2">
+      <c r="H390" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I390" t="s" s="2">
+      <c r="I390" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11438,10 +11450,10 @@
       <c r="I392">
         <f>((C392-C391)^2+(D392- D391)^2)^.5</f>
       </c>
-      <c r="J392" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K392" s="2" t="s">
+      <c r="J392" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K392" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L392" t="n">
@@ -11485,28 +11497,28 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="s" s="2">
+      <c r="A394" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B394" t="s" s="2">
+      <c r="B394" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C394" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D394" t="s" s="2">
+      <c r="C394" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D394" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E394" t="s" s="2">
+      <c r="E394" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F394" t="s" s="2">
+      <c r="F394" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G394" t="s" s="2">
+      <c r="G394" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H394" t="s" s="2">
+      <c r="H394" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11531,28 +11543,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="B396" t="s" s="2">
+      <c r="B396" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C396" t="s" s="2">
+      <c r="C396" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D396" t="s" s="2">
+      <c r="D396" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E396" t="s" s="2">
+      <c r="E396" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F396" t="s" s="2">
+      <c r="F396" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G396" t="s" s="2">
+      <c r="G396" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H396" t="s" s="2">
+      <c r="H396" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I396" t="s" s="2">
+      <c r="I396" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11669,10 +11681,10 @@
       <c r="I400">
         <f>((C400-C399)^2+(D400- D399)^2)^.5</f>
       </c>
-      <c r="J400" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K400" s="2" t="s">
+      <c r="J400" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K400" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L400" t="n">
@@ -11716,28 +11728,28 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="s" s="2">
+      <c r="A402" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B402" t="s" s="2">
+      <c r="B402" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C402" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D402" t="s" s="2">
+      <c r="C402" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D402" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E402" t="s" s="2">
+      <c r="E402" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F402" t="s" s="2">
+      <c r="F402" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G402" t="s" s="2">
+      <c r="G402" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H402" t="s" s="2">
+      <c r="H402" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11762,28 +11774,28 @@
       </c>
     </row>
     <row r="404">
-      <c r="B404" t="s" s="2">
+      <c r="B404" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C404" t="s" s="2">
+      <c r="C404" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D404" t="s" s="2">
+      <c r="D404" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E404" t="s" s="2">
+      <c r="E404" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F404" t="s" s="2">
+      <c r="F404" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G404" t="s" s="2">
+      <c r="G404" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H404" t="s" s="2">
+      <c r="H404" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I404" t="s" s="2">
+      <c r="I404" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11842,10 +11854,10 @@
       <c r="I406">
         <f>((C406-C405)^2+(D406- D405)^2)^.5</f>
       </c>
-      <c r="J406" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K406" s="2" t="s">
+      <c r="J406" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K406" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L406" t="n">
@@ -11889,28 +11901,28 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="s" s="2">
+      <c r="A408" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B408" t="s" s="2">
+      <c r="B408" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C408" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D408" t="s" s="2">
+      <c r="C408" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D408" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E408" t="s" s="2">
+      <c r="E408" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F408" t="s" s="2">
+      <c r="F408" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G408" t="s" s="2">
+      <c r="G408" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H408" t="s" s="2">
+      <c r="H408" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11935,28 +11947,28 @@
       </c>
     </row>
     <row r="410">
-      <c r="B410" t="s" s="2">
+      <c r="B410" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C410" t="s" s="2">
+      <c r="C410" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D410" t="s" s="2">
+      <c r="D410" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E410" t="s" s="2">
+      <c r="E410" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F410" t="s" s="2">
+      <c r="F410" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G410" t="s" s="2">
+      <c r="G410" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H410" t="s" s="2">
+      <c r="H410" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I410" t="s" s="2">
+      <c r="I410" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12102,10 +12114,10 @@
       <c r="I415">
         <f>((C415-C414)^2+(D415- D414)^2)^.5</f>
       </c>
-      <c r="J415" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K415" s="2" t="s">
+      <c r="J415" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K415" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L415" t="n">
@@ -12149,28 +12161,28 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" t="s" s="2">
+      <c r="A417" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B417" t="s" s="2">
+      <c r="B417" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C417" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D417" t="s" s="2">
+      <c r="C417" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D417" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E417" t="s" s="2">
+      <c r="E417" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F417" t="s" s="2">
+      <c r="F417" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G417" t="s" s="2">
+      <c r="G417" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H417" t="s" s="2">
+      <c r="H417" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12195,28 +12207,28 @@
       </c>
     </row>
     <row r="419">
-      <c r="B419" t="s" s="2">
+      <c r="B419" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C419" t="s" s="2">
+      <c r="C419" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D419" t="s" s="2">
+      <c r="D419" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E419" t="s" s="2">
+      <c r="E419" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F419" t="s" s="2">
+      <c r="F419" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G419" t="s" s="2">
+      <c r="G419" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H419" t="s" s="2">
+      <c r="H419" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I419" t="s" s="2">
+      <c r="I419" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12275,10 +12287,10 @@
       <c r="I421">
         <f>((C421-C420)^2+(D421- D420)^2)^.5</f>
       </c>
-      <c r="J421" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K421" s="2" t="s">
+      <c r="J421" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K421" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L421" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4672" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14016" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -373,10 +421,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="J8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -420,28 +468,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="4">
+      <c r="A10" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="4">
+      <c r="B10" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="4">
+      <c r="C10" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="4">
+      <c r="E10" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="4">
+      <c r="F10" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="4">
+      <c r="G10" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="4">
+      <c r="H10" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -466,28 +514,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="4">
+      <c r="B12" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="4">
+      <c r="C12" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="4">
+      <c r="D12" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="4">
+      <c r="E12" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="4">
+      <c r="F12" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="4">
+      <c r="G12" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="4">
+      <c r="H12" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="4">
+      <c r="I12" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -575,10 +623,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="4" t="s">
+      <c r="J15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -622,28 +670,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="4">
+      <c r="A17" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="4">
+      <c r="B17" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="4">
+      <c r="C17" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="4">
+      <c r="E17" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="4">
+      <c r="F17" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="4">
+      <c r="G17" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="4">
+      <c r="H17" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -668,28 +716,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="4">
+      <c r="B19" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="4">
+      <c r="C19" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="4">
+      <c r="D19" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="4">
+      <c r="E19" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="4">
+      <c r="F19" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="4">
+      <c r="G19" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="4">
+      <c r="H19" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="4">
+      <c r="I19" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -777,10 +825,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="4" t="s">
+      <c r="J22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -824,28 +872,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="4">
+      <c r="A24" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="4">
+      <c r="B24" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="4">
+      <c r="C24" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="4">
+      <c r="E24" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="4">
+      <c r="F24" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="4">
+      <c r="G24" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="4">
+      <c r="H24" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -870,28 +918,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="4">
+      <c r="B26" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="4">
+      <c r="C26" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="4">
+      <c r="D26" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="4">
+      <c r="E26" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="4">
+      <c r="F26" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="4">
+      <c r="G26" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="4">
+      <c r="H26" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="4">
+      <c r="I26" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -950,10 +998,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="4" t="s">
+      <c r="J28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -997,28 +1045,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="4">
+      <c r="A30" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="4">
+      <c r="B30" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="4">
+      <c r="C30" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="4">
+      <c r="E30" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="4">
+      <c r="F30" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="4">
+      <c r="G30" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="4">
+      <c r="H30" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1043,28 +1091,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="4">
+      <c r="B32" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="4">
+      <c r="C32" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="4">
+      <c r="D32" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="4">
+      <c r="E32" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="4">
+      <c r="F32" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="4">
+      <c r="G32" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="4">
+      <c r="H32" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="4">
+      <c r="I32" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1152,10 +1200,10 @@
       <c r="I35">
         <f>((C35-C34)^2+(D35- D34)^2)^.5</f>
       </c>
-      <c r="J35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="4" t="s">
+      <c r="J35" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="n">
@@ -1199,28 +1247,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="4">
+      <c r="A37" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B37" t="s" s="4">
+      <c r="B37" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C37" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s" s="4">
+      <c r="C37" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E37" t="s" s="4">
+      <c r="E37" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F37" t="s" s="4">
+      <c r="F37" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G37" t="s" s="4">
+      <c r="G37" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H37" t="s" s="4">
+      <c r="H37" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1245,28 +1293,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="4">
+      <c r="B39" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C39" t="s" s="4">
+      <c r="C39" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D39" t="s" s="4">
+      <c r="D39" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E39" t="s" s="4">
+      <c r="E39" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F39" t="s" s="4">
+      <c r="F39" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G39" t="s" s="4">
+      <c r="G39" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H39" t="s" s="4">
+      <c r="H39" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I39" t="s" s="4">
+      <c r="I39" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1354,10 +1402,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="4" t="s">
+      <c r="J42" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1401,28 +1449,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="4">
+      <c r="A44" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="4">
+      <c r="B44" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="4">
+      <c r="C44" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="4">
+      <c r="E44" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="4">
+      <c r="F44" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="4">
+      <c r="G44" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="4">
+      <c r="H44" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1447,28 +1495,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="4">
+      <c r="B46" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="4">
+      <c r="C46" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="4">
+      <c r="D46" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="4">
+      <c r="E46" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="4">
+      <c r="F46" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="4">
+      <c r="G46" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="4">
+      <c r="H46" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="4">
+      <c r="I46" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1527,10 +1575,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="4" t="s">
+      <c r="J48" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1574,28 +1622,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="4">
+      <c r="A50" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="4">
+      <c r="B50" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="4">
+      <c r="C50" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="4">
+      <c r="E50" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="4">
+      <c r="F50" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="4">
+      <c r="G50" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="4">
+      <c r="H50" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1620,28 +1668,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="4">
+      <c r="B52" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="4">
+      <c r="C52" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="4">
+      <c r="D52" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="4">
+      <c r="E52" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="4">
+      <c r="F52" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="4">
+      <c r="G52" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="4">
+      <c r="H52" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="4">
+      <c r="I52" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1700,10 +1748,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="4" t="s">
+      <c r="J54" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1747,28 +1795,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="4">
+      <c r="A56" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="4">
+      <c r="B56" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="4">
+      <c r="C56" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="4">
+      <c r="E56" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="4">
+      <c r="F56" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="4">
+      <c r="G56" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="4">
+      <c r="H56" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1793,28 +1841,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="4">
+      <c r="B58" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="4">
+      <c r="C58" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="4">
+      <c r="D58" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="4">
+      <c r="E58" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="4">
+      <c r="F58" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="4">
+      <c r="G58" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="4">
+      <c r="H58" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="4">
+      <c r="I58" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1873,10 +1921,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="4" t="s">
+      <c r="J60" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1920,28 +1968,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="4">
+      <c r="A62" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="4">
+      <c r="B62" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="4">
+      <c r="C62" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="4">
+      <c r="E62" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="4">
+      <c r="F62" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="4">
+      <c r="G62" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="4">
+      <c r="H62" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1966,28 +2014,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="4">
+      <c r="B64" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="4">
+      <c r="C64" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="4">
+      <c r="D64" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="4">
+      <c r="E64" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="4">
+      <c r="F64" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="4">
+      <c r="G64" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="4">
+      <c r="H64" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="4">
+      <c r="I64" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2075,10 +2123,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="4" t="s">
+      <c r="J67" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2122,28 +2170,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="4">
+      <c r="A69" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="4">
+      <c r="B69" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="4">
+      <c r="C69" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="4">
+      <c r="E69" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="4">
+      <c r="F69" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="4">
+      <c r="G69" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="4">
+      <c r="H69" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2168,28 +2216,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="4">
+      <c r="B71" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="4">
+      <c r="C71" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="4">
+      <c r="D71" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="4">
+      <c r="E71" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="4">
+      <c r="F71" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="4">
+      <c r="G71" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="4">
+      <c r="H71" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="4">
+      <c r="I71" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2248,10 +2296,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K73" s="4" t="s">
+      <c r="J73" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2295,28 +2343,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="4">
+      <c r="A75" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="4">
+      <c r="B75" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s" s="4">
+      <c r="C75" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="4">
+      <c r="E75" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="4">
+      <c r="F75" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="4">
+      <c r="G75" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="4">
+      <c r="H75" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2341,28 +2389,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="4">
+      <c r="B77" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="4">
+      <c r="C77" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="4">
+      <c r="D77" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="4">
+      <c r="E77" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="4">
+      <c r="F77" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="4">
+      <c r="G77" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="4">
+      <c r="H77" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="4">
+      <c r="I77" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2421,10 +2469,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="4" t="s">
+      <c r="J79" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2468,28 +2516,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="4">
+      <c r="A81" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="4">
+      <c r="B81" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="4">
+      <c r="C81" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="4">
+      <c r="E81" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="4">
+      <c r="F81" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="4">
+      <c r="G81" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="4">
+      <c r="H81" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2514,28 +2562,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="4">
+      <c r="B83" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="4">
+      <c r="C83" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="4">
+      <c r="D83" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="4">
+      <c r="E83" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="4">
+      <c r="F83" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="4">
+      <c r="G83" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="4">
+      <c r="H83" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="4">
+      <c r="I83" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2594,10 +2642,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="4" t="s">
+      <c r="J85" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2641,28 +2689,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="4">
+      <c r="A87" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="4">
+      <c r="B87" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="4">
+      <c r="C87" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="4">
+      <c r="E87" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="4">
+      <c r="F87" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="4">
+      <c r="G87" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="4">
+      <c r="H87" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2687,28 +2735,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="4">
+      <c r="B89" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="4">
+      <c r="C89" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="4">
+      <c r="D89" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="4">
+      <c r="E89" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="4">
+      <c r="F89" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="4">
+      <c r="G89" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="4">
+      <c r="H89" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="4">
+      <c r="I89" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2796,10 +2844,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="4" t="s">
+      <c r="J92" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2843,28 +2891,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="4">
+      <c r="A94" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="4">
+      <c r="B94" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="4">
+      <c r="C94" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="4">
+      <c r="E94" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="4">
+      <c r="F94" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="4">
+      <c r="G94" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="4">
+      <c r="H94" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2889,28 +2937,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="4">
+      <c r="B96" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="4">
+      <c r="C96" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="4">
+      <c r="D96" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="4">
+      <c r="E96" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="4">
+      <c r="F96" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="4">
+      <c r="G96" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="4">
+      <c r="H96" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="4">
+      <c r="I96" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2969,10 +3017,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="4" t="s">
+      <c r="J98" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3016,28 +3064,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="4">
+      <c r="A100" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="4">
+      <c r="B100" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="4">
+      <c r="C100" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="4">
+      <c r="E100" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="4">
+      <c r="F100" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="4">
+      <c r="G100" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="4">
+      <c r="H100" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3062,28 +3110,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="4">
+      <c r="B102" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="4">
+      <c r="C102" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="4">
+      <c r="D102" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="4">
+      <c r="E102" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="4">
+      <c r="F102" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="4">
+      <c r="G102" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="4">
+      <c r="H102" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="4">
+      <c r="I102" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3171,10 +3219,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="4" t="s">
+      <c r="J105" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3218,28 +3266,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="4">
+      <c r="A107" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="4">
+      <c r="B107" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="4">
+      <c r="C107" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="4">
+      <c r="E107" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="4">
+      <c r="F107" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="4">
+      <c r="G107" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="4">
+      <c r="H107" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3264,28 +3312,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="4">
+      <c r="B109" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="4">
+      <c r="C109" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="4">
+      <c r="D109" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="4">
+      <c r="E109" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="4">
+      <c r="F109" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="4">
+      <c r="G109" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="4">
+      <c r="H109" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="4">
+      <c r="I109" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3402,10 +3450,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="4" t="s">
+      <c r="J113" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3449,28 +3497,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="4">
+      <c r="A115" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="4">
+      <c r="B115" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="4">
+      <c r="C115" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="4">
+      <c r="E115" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="4">
+      <c r="F115" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="4">
+      <c r="G115" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="4">
+      <c r="H115" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3495,28 +3543,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="4">
+      <c r="B117" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="4">
+      <c r="C117" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="4">
+      <c r="D117" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="4">
+      <c r="E117" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="4">
+      <c r="F117" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="4">
+      <c r="G117" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="4">
+      <c r="H117" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="4">
+      <c r="I117" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3575,10 +3623,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="4" t="s">
+      <c r="J119" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3622,28 +3670,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="4">
+      <c r="A121" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="4">
+      <c r="B121" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="4">
+      <c r="C121" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="4">
+      <c r="E121" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="4">
+      <c r="F121" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="4">
+      <c r="G121" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="4">
+      <c r="H121" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3668,28 +3716,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="4">
+      <c r="B123" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="4">
+      <c r="C123" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="4">
+      <c r="D123" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="4">
+      <c r="E123" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="4">
+      <c r="F123" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="4">
+      <c r="G123" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="4">
+      <c r="H123" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="4">
+      <c r="I123" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3748,10 +3796,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="4" t="s">
+      <c r="J125" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3795,28 +3843,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="4">
+      <c r="A127" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="4">
+      <c r="B127" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="4">
+      <c r="C127" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="4">
+      <c r="E127" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="4">
+      <c r="F127" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="4">
+      <c r="G127" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="4">
+      <c r="H127" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3841,28 +3889,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="4">
+      <c r="B129" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="4">
+      <c r="C129" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="4">
+      <c r="D129" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="4">
+      <c r="E129" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="4">
+      <c r="F129" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="4">
+      <c r="G129" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="4">
+      <c r="H129" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="4">
+      <c r="I129" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3921,10 +3969,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="4" t="s">
+      <c r="J131" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3968,28 +4016,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="4">
+      <c r="A133" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="4">
+      <c r="B133" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="4">
+      <c r="C133" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="4">
+      <c r="E133" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="4">
+      <c r="F133" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="4">
+      <c r="G133" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="4">
+      <c r="H133" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4014,28 +4062,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="4">
+      <c r="B135" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="4">
+      <c r="C135" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="4">
+      <c r="D135" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="4">
+      <c r="E135" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="4">
+      <c r="F135" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="4">
+      <c r="G135" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="4">
+      <c r="H135" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="4">
+      <c r="I135" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4094,10 +4142,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="4" t="s">
+      <c r="J137" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4141,28 +4189,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="4">
+      <c r="A139" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="4">
+      <c r="B139" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="4">
+      <c r="C139" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="4">
+      <c r="E139" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="4">
+      <c r="F139" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="4">
+      <c r="G139" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="4">
+      <c r="H139" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4187,28 +4235,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="4">
+      <c r="B141" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="4">
+      <c r="C141" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="4">
+      <c r="D141" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="4">
+      <c r="E141" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="4">
+      <c r="F141" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="4">
+      <c r="G141" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="4">
+      <c r="H141" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="4">
+      <c r="I141" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4267,10 +4315,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="4" t="s">
+      <c r="J143" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4314,28 +4362,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="4">
+      <c r="A145" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="4">
+      <c r="B145" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="4">
+      <c r="C145" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="4">
+      <c r="E145" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="4">
+      <c r="F145" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="4">
+      <c r="G145" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="4">
+      <c r="H145" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4360,28 +4408,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="4">
+      <c r="B147" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="4">
+      <c r="C147" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="4">
+      <c r="D147" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="4">
+      <c r="E147" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="4">
+      <c r="F147" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="4">
+      <c r="G147" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="4">
+      <c r="H147" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="4">
+      <c r="I147" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4469,10 +4517,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="4" t="s">
+      <c r="J150" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4516,28 +4564,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="4">
+      <c r="A152" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="4">
+      <c r="B152" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="4">
+      <c r="C152" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="4">
+      <c r="E152" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="4">
+      <c r="F152" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="4">
+      <c r="G152" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="4">
+      <c r="H152" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4562,28 +4610,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="4">
+      <c r="B154" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="4">
+      <c r="C154" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="4">
+      <c r="D154" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="4">
+      <c r="E154" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="4">
+      <c r="F154" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="4">
+      <c r="G154" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="4">
+      <c r="H154" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="4">
+      <c r="I154" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4642,10 +4690,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="4" t="s">
+      <c r="J156" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4689,28 +4737,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="4">
+      <c r="A158" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="4">
+      <c r="B158" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="4">
+      <c r="C158" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="4">
+      <c r="E158" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="4">
+      <c r="F158" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="4">
+      <c r="G158" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="4">
+      <c r="H158" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4735,28 +4783,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="4">
+      <c r="B160" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="4">
+      <c r="C160" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="4">
+      <c r="D160" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="4">
+      <c r="E160" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="4">
+      <c r="F160" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="4">
+      <c r="G160" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="4">
+      <c r="H160" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="4">
+      <c r="I160" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4873,10 +4921,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="4" t="s">
+      <c r="J164" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4920,28 +4968,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="4">
+      <c r="A166" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="4">
+      <c r="B166" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="4">
+      <c r="C166" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="4">
+      <c r="E166" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="4">
+      <c r="F166" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="4">
+      <c r="G166" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="4">
+      <c r="H166" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4966,28 +5014,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="4">
+      <c r="B168" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="4">
+      <c r="C168" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="4">
+      <c r="D168" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="4">
+      <c r="E168" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="4">
+      <c r="F168" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="4">
+      <c r="G168" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="4">
+      <c r="H168" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="4">
+      <c r="I168" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5046,10 +5094,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="4" t="s">
+      <c r="J170" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5093,28 +5141,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="4">
+      <c r="A172" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="4">
+      <c r="B172" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="4">
+      <c r="C172" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="4">
+      <c r="E172" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="4">
+      <c r="F172" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="4">
+      <c r="G172" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="4">
+      <c r="H172" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5139,28 +5187,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="4">
+      <c r="B174" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="4">
+      <c r="C174" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="4">
+      <c r="D174" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="4">
+      <c r="E174" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="4">
+      <c r="F174" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="4">
+      <c r="G174" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="4">
+      <c r="H174" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="4">
+      <c r="I174" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5219,10 +5267,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="4" t="s">
+      <c r="J176" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5266,28 +5314,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="4">
+      <c r="A178" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="4">
+      <c r="B178" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="4">
+      <c r="C178" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="4">
+      <c r="E178" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="4">
+      <c r="F178" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="4">
+      <c r="G178" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="4">
+      <c r="H178" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5312,28 +5360,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="4">
+      <c r="B180" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="4">
+      <c r="C180" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="4">
+      <c r="D180" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="4">
+      <c r="E180" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="4">
+      <c r="F180" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="4">
+      <c r="G180" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="4">
+      <c r="H180" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="4">
+      <c r="I180" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5392,10 +5440,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="4" t="s">
+      <c r="J182" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5439,28 +5487,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="4">
+      <c r="A184" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="4">
+      <c r="B184" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="4">
+      <c r="C184" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="4">
+      <c r="E184" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="4">
+      <c r="F184" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="4">
+      <c r="G184" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="4">
+      <c r="H184" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5485,28 +5533,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="4">
+      <c r="B186" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="4">
+      <c r="C186" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="4">
+      <c r="D186" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="4">
+      <c r="E186" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="4">
+      <c r="F186" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="4">
+      <c r="G186" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="4">
+      <c r="H186" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="4">
+      <c r="I186" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5565,10 +5613,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="4" t="s">
+      <c r="J188" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5612,28 +5660,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="4">
+      <c r="A190" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="4">
+      <c r="B190" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="4">
+      <c r="C190" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="4">
+      <c r="E190" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="4">
+      <c r="F190" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="4">
+      <c r="G190" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="4">
+      <c r="H190" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5658,28 +5706,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="4">
+      <c r="B192" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="4">
+      <c r="C192" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="4">
+      <c r="D192" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="4">
+      <c r="E192" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="4">
+      <c r="F192" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="4">
+      <c r="G192" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="4">
+      <c r="H192" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="4">
+      <c r="I192" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5738,10 +5786,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="4" t="s">
+      <c r="J194" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5785,28 +5833,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="4">
+      <c r="A196" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="4">
+      <c r="B196" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="4">
+      <c r="C196" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="4">
+      <c r="E196" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="4">
+      <c r="F196" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="4">
+      <c r="G196" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="4">
+      <c r="H196" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5831,28 +5879,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="4">
+      <c r="B198" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="4">
+      <c r="C198" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="4">
+      <c r="D198" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="4">
+      <c r="E198" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="4">
+      <c r="F198" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="4">
+      <c r="G198" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="4">
+      <c r="H198" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="4">
+      <c r="I198" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5911,10 +5959,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="4" t="s">
+      <c r="J200" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5958,28 +6006,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="4">
+      <c r="A202" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="4">
+      <c r="B202" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="4">
+      <c r="C202" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="4">
+      <c r="E202" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="4">
+      <c r="F202" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="4">
+      <c r="G202" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="4">
+      <c r="H202" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6004,28 +6052,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="4">
+      <c r="B204" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="4">
+      <c r="C204" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="4">
+      <c r="D204" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="4">
+      <c r="E204" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="4">
+      <c r="F204" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="4">
+      <c r="G204" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="4">
+      <c r="H204" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="4">
+      <c r="I204" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6113,10 +6161,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="4" t="s">
+      <c r="J207" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6160,28 +6208,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="4">
+      <c r="A209" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="4">
+      <c r="B209" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="4">
+      <c r="C209" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="4">
+      <c r="E209" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="4">
+      <c r="F209" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="4">
+      <c r="G209" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="4">
+      <c r="H209" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6206,28 +6254,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="4">
+      <c r="B211" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="4">
+      <c r="C211" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="4">
+      <c r="D211" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="4">
+      <c r="E211" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="4">
+      <c r="F211" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="4">
+      <c r="G211" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="4">
+      <c r="H211" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="4">
+      <c r="I211" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6286,10 +6334,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="4" t="s">
+      <c r="J213" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6333,28 +6381,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="4">
+      <c r="A215" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="4">
+      <c r="B215" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="4">
+      <c r="C215" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="4">
+      <c r="E215" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="4">
+      <c r="F215" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="4">
+      <c r="G215" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="4">
+      <c r="H215" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6379,28 +6427,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="4">
+      <c r="B217" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="4">
+      <c r="C217" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="4">
+      <c r="D217" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="4">
+      <c r="E217" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="4">
+      <c r="F217" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="4">
+      <c r="G217" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="4">
+      <c r="H217" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="4">
+      <c r="I217" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6459,10 +6507,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="4" t="s">
+      <c r="J219" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6506,28 +6554,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="4">
+      <c r="A221" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="4">
+      <c r="B221" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="4">
+      <c r="C221" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="4">
+      <c r="E221" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="4">
+      <c r="F221" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="4">
+      <c r="G221" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="4">
+      <c r="H221" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6552,28 +6600,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="4">
+      <c r="B223" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="4">
+      <c r="C223" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="4">
+      <c r="D223" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="4">
+      <c r="E223" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="4">
+      <c r="F223" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="4">
+      <c r="G223" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="4">
+      <c r="H223" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="4">
+      <c r="I223" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6719,10 +6767,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="4" t="s">
+      <c r="J228" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6766,28 +6814,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="4">
+      <c r="A230" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="4">
+      <c r="B230" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="4">
+      <c r="C230" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="4">
+      <c r="E230" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="4">
+      <c r="F230" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="4">
+      <c r="G230" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="4">
+      <c r="H230" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6812,28 +6860,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="4">
+      <c r="B232" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="4">
+      <c r="C232" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="4">
+      <c r="D232" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="4">
+      <c r="E232" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="4">
+      <c r="F232" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="4">
+      <c r="G232" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="4">
+      <c r="H232" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="4">
+      <c r="I232" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6892,10 +6940,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="4" t="s">
+      <c r="J234" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6939,28 +6987,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="4">
+      <c r="A236" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="4">
+      <c r="B236" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="4">
+      <c r="C236" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="4">
+      <c r="E236" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="4">
+      <c r="F236" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="4">
+      <c r="G236" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="4">
+      <c r="H236" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6985,28 +7033,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="4">
+      <c r="B238" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="4">
+      <c r="C238" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="4">
+      <c r="D238" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="4">
+      <c r="E238" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="4">
+      <c r="F238" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="4">
+      <c r="G238" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="4">
+      <c r="H238" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="4">
+      <c r="I238" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7065,10 +7113,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="4" t="s">
+      <c r="J240" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7112,28 +7160,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="4">
+      <c r="A242" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="4">
+      <c r="B242" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="4">
+      <c r="C242" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="4">
+      <c r="E242" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="4">
+      <c r="F242" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="4">
+      <c r="G242" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="4">
+      <c r="H242" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7158,28 +7206,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="4">
+      <c r="B244" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="4">
+      <c r="C244" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="4">
+      <c r="D244" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="4">
+      <c r="E244" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="4">
+      <c r="F244" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="4">
+      <c r="G244" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="4">
+      <c r="H244" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="4">
+      <c r="I244" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7238,10 +7286,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="4" t="s">
+      <c r="J246" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7285,28 +7333,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="4">
+      <c r="A248" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="4">
+      <c r="B248" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="4">
+      <c r="C248" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="4">
+      <c r="E248" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="4">
+      <c r="F248" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="4">
+      <c r="G248" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="4">
+      <c r="H248" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7331,28 +7379,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="4">
+      <c r="B250" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="4">
+      <c r="C250" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="4">
+      <c r="D250" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="4">
+      <c r="E250" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="4">
+      <c r="F250" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="4">
+      <c r="G250" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="4">
+      <c r="H250" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="4">
+      <c r="I250" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7411,10 +7459,10 @@
       <c r="I252">
         <f>((C252-C251)^2+(D252- D251)^2)^.5</f>
       </c>
-      <c r="J252" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K252" s="4" t="s">
+      <c r="J252" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L252" t="n">
@@ -7458,28 +7506,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="4">
+      <c r="A254" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B254" t="s" s="4">
+      <c r="B254" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C254" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D254" t="s" s="4">
+      <c r="C254" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E254" t="s" s="4">
+      <c r="E254" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F254" t="s" s="4">
+      <c r="F254" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G254" t="s" s="4">
+      <c r="G254" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H254" t="s" s="4">
+      <c r="H254" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7504,28 +7552,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="4">
+      <c r="B256" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C256" t="s" s="4">
+      <c r="C256" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D256" t="s" s="4">
+      <c r="D256" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E256" t="s" s="4">
+      <c r="E256" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F256" t="s" s="4">
+      <c r="F256" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G256" t="s" s="4">
+      <c r="G256" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H256" t="s" s="4">
+      <c r="H256" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I256" t="s" s="4">
+      <c r="I256" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7642,10 +7690,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="4" t="s">
+      <c r="J260" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7689,28 +7737,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="4">
+      <c r="A262" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="4">
+      <c r="B262" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="4">
+      <c r="C262" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="4">
+      <c r="E262" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="4">
+      <c r="F262" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="4">
+      <c r="G262" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="4">
+      <c r="H262" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7735,28 +7783,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="4">
+      <c r="B264" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="4">
+      <c r="C264" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="4">
+      <c r="D264" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="4">
+      <c r="E264" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="4">
+      <c r="F264" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="4">
+      <c r="G264" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="4">
+      <c r="H264" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="4">
+      <c r="I264" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7815,10 +7863,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="4" t="s">
+      <c r="J266" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7862,28 +7910,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="4">
+      <c r="A268" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="4">
+      <c r="B268" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="4">
+      <c r="C268" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="4">
+      <c r="E268" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="4">
+      <c r="F268" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="4">
+      <c r="G268" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="4">
+      <c r="H268" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7908,28 +7956,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="4">
+      <c r="B270" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="4">
+      <c r="C270" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="4">
+      <c r="D270" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="4">
+      <c r="E270" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="4">
+      <c r="F270" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="4">
+      <c r="G270" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="4">
+      <c r="H270" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="4">
+      <c r="I270" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7988,10 +8036,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="4" t="s">
+      <c r="J272" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8035,28 +8083,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="4">
+      <c r="A274" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="4">
+      <c r="B274" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="4">
+      <c r="C274" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="4">
+      <c r="E274" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="4">
+      <c r="F274" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="4">
+      <c r="G274" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="4">
+      <c r="H274" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8081,28 +8129,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="4">
+      <c r="B276" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="4">
+      <c r="C276" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="4">
+      <c r="D276" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="4">
+      <c r="E276" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="4">
+      <c r="F276" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="4">
+      <c r="G276" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="4">
+      <c r="H276" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="4">
+      <c r="I276" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8161,10 +8209,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="4" t="s">
+      <c r="J278" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8208,28 +8256,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="4">
+      <c r="A280" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="4">
+      <c r="B280" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="4">
+      <c r="C280" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="4">
+      <c r="E280" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="4">
+      <c r="F280" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="4">
+      <c r="G280" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="4">
+      <c r="H280" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8254,28 +8302,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="4">
+      <c r="B282" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="4">
+      <c r="C282" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="4">
+      <c r="D282" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="4">
+      <c r="E282" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="4">
+      <c r="F282" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="4">
+      <c r="G282" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="4">
+      <c r="H282" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="4">
+      <c r="I282" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8363,10 +8411,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="4" t="s">
+      <c r="J285" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8410,28 +8458,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="4">
+      <c r="A287" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="4">
+      <c r="B287" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="4">
+      <c r="C287" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="4">
+      <c r="E287" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="4">
+      <c r="F287" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="4">
+      <c r="G287" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="4">
+      <c r="H287" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8456,28 +8504,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="4">
+      <c r="B289" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="4">
+      <c r="C289" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="4">
+      <c r="D289" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="4">
+      <c r="E289" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="4">
+      <c r="F289" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="4">
+      <c r="G289" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="4">
+      <c r="H289" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="4">
+      <c r="I289" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8536,10 +8584,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="4" t="s">
+      <c r="J291" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
@@ -8583,28 +8631,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s" s="4">
+      <c r="A293" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B293" t="s" s="4">
+      <c r="B293" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C293" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D293" t="s" s="4">
+      <c r="C293" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E293" t="s" s="4">
+      <c r="E293" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F293" t="s" s="4">
+      <c r="F293" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G293" t="s" s="4">
+      <c r="G293" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H293" t="s" s="4">
+      <c r="H293" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8629,28 +8677,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="B295" t="s" s="4">
+      <c r="B295" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C295" t="s" s="4">
+      <c r="C295" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D295" t="s" s="4">
+      <c r="D295" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E295" t="s" s="4">
+      <c r="E295" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F295" t="s" s="4">
+      <c r="F295" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G295" t="s" s="4">
+      <c r="G295" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H295" t="s" s="4">
+      <c r="H295" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I295" t="s" s="4">
+      <c r="I295" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8709,10 +8757,10 @@
       <c r="I297">
         <f>((C297-C296)^2+(D297- D296)^2)^.5</f>
       </c>
-      <c r="J297" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K297" s="4" t="s">
+      <c r="J297" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K297" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L297" t="n">
@@ -8756,28 +8804,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s" s="4">
+      <c r="A299" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B299" t="s" s="4">
+      <c r="B299" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C299" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D299" t="s" s="4">
+      <c r="C299" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E299" t="s" s="4">
+      <c r="E299" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F299" t="s" s="4">
+      <c r="F299" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G299" t="s" s="4">
+      <c r="G299" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H299" t="s" s="4">
+      <c r="H299" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8802,28 +8850,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="s" s="4">
+      <c r="B301" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C301" t="s" s="4">
+      <c r="C301" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D301" t="s" s="4">
+      <c r="D301" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E301" t="s" s="4">
+      <c r="E301" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F301" t="s" s="4">
+      <c r="F301" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G301" t="s" s="4">
+      <c r="G301" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H301" t="s" s="4">
+      <c r="H301" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I301" t="s" s="4">
+      <c r="I301" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8882,10 +8930,10 @@
       <c r="I303">
         <f>((C303-C302)^2+(D303- D302)^2)^.5</f>
       </c>
-      <c r="J303" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K303" s="4" t="s">
+      <c r="J303" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K303" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L303" t="n">
@@ -8929,28 +8977,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="4">
+      <c r="A305" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B305" t="s" s="4">
+      <c r="B305" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C305" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D305" t="s" s="4">
+      <c r="C305" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E305" t="s" s="4">
+      <c r="E305" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F305" t="s" s="4">
+      <c r="F305" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G305" t="s" s="4">
+      <c r="G305" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H305" t="s" s="4">
+      <c r="H305" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8975,28 +9023,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="4">
+      <c r="B307" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C307" t="s" s="4">
+      <c r="C307" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D307" t="s" s="4">
+      <c r="D307" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E307" t="s" s="4">
+      <c r="E307" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F307" t="s" s="4">
+      <c r="F307" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G307" t="s" s="4">
+      <c r="G307" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H307" t="s" s="4">
+      <c r="H307" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I307" t="s" s="4">
+      <c r="I307" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9055,10 +9103,10 @@
       <c r="I309">
         <f>((C309-C308)^2+(D309- D308)^2)^.5</f>
       </c>
-      <c r="J309" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K309" s="4" t="s">
+      <c r="J309" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K309" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L309" t="n">
@@ -9102,28 +9150,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="4">
+      <c r="A311" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B311" t="s" s="4">
+      <c r="B311" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C311" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D311" t="s" s="4">
+      <c r="C311" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E311" t="s" s="4">
+      <c r="E311" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F311" t="s" s="4">
+      <c r="F311" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G311" t="s" s="4">
+      <c r="G311" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H311" t="s" s="4">
+      <c r="H311" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9148,28 +9196,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="B313" t="s" s="4">
+      <c r="B313" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C313" t="s" s="4">
+      <c r="C313" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D313" t="s" s="4">
+      <c r="D313" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E313" t="s" s="4">
+      <c r="E313" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F313" t="s" s="4">
+      <c r="F313" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G313" t="s" s="4">
+      <c r="G313" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H313" t="s" s="4">
+      <c r="H313" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I313" t="s" s="4">
+      <c r="I313" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9228,10 +9276,10 @@
       <c r="I315">
         <f>((C315-C314)^2+(D315- D314)^2)^.5</f>
       </c>
-      <c r="J315" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K315" s="4" t="s">
+      <c r="J315" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K315" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L315" t="n">
@@ -9275,28 +9323,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="s" s="4">
+      <c r="A317" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B317" t="s" s="4">
+      <c r="B317" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C317" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D317" t="s" s="4">
+      <c r="C317" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D317" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E317" t="s" s="4">
+      <c r="E317" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F317" t="s" s="4">
+      <c r="F317" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G317" t="s" s="4">
+      <c r="G317" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H317" t="s" s="4">
+      <c r="H317" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9321,28 +9369,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="B319" t="s" s="4">
+      <c r="B319" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C319" t="s" s="4">
+      <c r="C319" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D319" t="s" s="4">
+      <c r="D319" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E319" t="s" s="4">
+      <c r="E319" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F319" t="s" s="4">
+      <c r="F319" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G319" t="s" s="4">
+      <c r="G319" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H319" t="s" s="4">
+      <c r="H319" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I319" t="s" s="4">
+      <c r="I319" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9401,10 +9449,10 @@
       <c r="I321">
         <f>((C321-C320)^2+(D321- D320)^2)^.5</f>
       </c>
-      <c r="J321" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K321" s="4" t="s">
+      <c r="J321" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K321" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L321" t="n">
@@ -9448,28 +9496,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="s" s="4">
+      <c r="A323" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B323" t="s" s="4">
+      <c r="B323" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C323" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D323" t="s" s="4">
+      <c r="C323" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D323" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E323" t="s" s="4">
+      <c r="E323" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F323" t="s" s="4">
+      <c r="F323" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G323" t="s" s="4">
+      <c r="G323" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H323" t="s" s="4">
+      <c r="H323" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9494,28 +9542,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="B325" t="s" s="4">
+      <c r="B325" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C325" t="s" s="4">
+      <c r="C325" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D325" t="s" s="4">
+      <c r="D325" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E325" t="s" s="4">
+      <c r="E325" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F325" t="s" s="4">
+      <c r="F325" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G325" t="s" s="4">
+      <c r="G325" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H325" t="s" s="4">
+      <c r="H325" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I325" t="s" s="4">
+      <c r="I325" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9603,10 +9651,10 @@
       <c r="I328">
         <f>((C328-C327)^2+(D328- D327)^2)^.5</f>
       </c>
-      <c r="J328" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K328" s="4" t="s">
+      <c r="J328" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K328" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L328" t="n">
@@ -9650,28 +9698,28 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="s" s="4">
+      <c r="A330" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B330" t="s" s="4">
+      <c r="B330" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C330" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D330" t="s" s="4">
+      <c r="C330" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D330" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E330" t="s" s="4">
+      <c r="E330" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F330" t="s" s="4">
+      <c r="F330" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G330" t="s" s="4">
+      <c r="G330" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H330" t="s" s="4">
+      <c r="H330" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9696,28 +9744,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="B332" t="s" s="4">
+      <c r="B332" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C332" t="s" s="4">
+      <c r="C332" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D332" t="s" s="4">
+      <c r="D332" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E332" t="s" s="4">
+      <c r="E332" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F332" t="s" s="4">
+      <c r="F332" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G332" t="s" s="4">
+      <c r="G332" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H332" t="s" s="4">
+      <c r="H332" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I332" t="s" s="4">
+      <c r="I332" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9776,10 +9824,10 @@
       <c r="I334">
         <f>((C334-C333)^2+(D334- D333)^2)^.5</f>
       </c>
-      <c r="J334" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K334" s="4" t="s">
+      <c r="J334" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K334" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L334" t="n">
@@ -9823,28 +9871,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="s" s="4">
+      <c r="A336" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B336" t="s" s="4">
+      <c r="B336" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C336" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D336" t="s" s="4">
+      <c r="C336" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D336" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E336" t="s" s="4">
+      <c r="E336" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F336" t="s" s="4">
+      <c r="F336" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G336" t="s" s="4">
+      <c r="G336" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H336" t="s" s="4">
+      <c r="H336" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9869,28 +9917,28 @@
       </c>
     </row>
     <row r="338">
-      <c r="B338" t="s" s="4">
+      <c r="B338" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C338" t="s" s="4">
+      <c r="C338" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D338" t="s" s="4">
+      <c r="D338" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E338" t="s" s="4">
+      <c r="E338" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F338" t="s" s="4">
+      <c r="F338" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G338" t="s" s="4">
+      <c r="G338" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H338" t="s" s="4">
+      <c r="H338" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I338" t="s" s="4">
+      <c r="I338" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9978,10 +10026,10 @@
       <c r="I341">
         <f>((C341-C340)^2+(D341- D340)^2)^.5</f>
       </c>
-      <c r="J341" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K341" s="4" t="s">
+      <c r="J341" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K341" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L341" t="n">
@@ -10025,28 +10073,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="s" s="4">
+      <c r="A343" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B343" t="s" s="4">
+      <c r="B343" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C343" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D343" t="s" s="4">
+      <c r="C343" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D343" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E343" t="s" s="4">
+      <c r="E343" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F343" t="s" s="4">
+      <c r="F343" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G343" t="s" s="4">
+      <c r="G343" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H343" t="s" s="4">
+      <c r="H343" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10071,28 +10119,28 @@
       </c>
     </row>
     <row r="345">
-      <c r="B345" t="s" s="4">
+      <c r="B345" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C345" t="s" s="4">
+      <c r="C345" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D345" t="s" s="4">
+      <c r="D345" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E345" t="s" s="4">
+      <c r="E345" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F345" t="s" s="4">
+      <c r="F345" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G345" t="s" s="4">
+      <c r="G345" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H345" t="s" s="4">
+      <c r="H345" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I345" t="s" s="4">
+      <c r="I345" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10267,10 +10315,10 @@
       <c r="I351">
         <f>((C351-C350)^2+(D351- D350)^2)^.5</f>
       </c>
-      <c r="J351" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K351" s="4" t="s">
+      <c r="J351" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K351" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L351" t="n">
@@ -10314,28 +10362,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="s" s="4">
+      <c r="A353" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B353" t="s" s="4">
+      <c r="B353" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C353" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D353" t="s" s="4">
+      <c r="C353" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D353" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E353" t="s" s="4">
+      <c r="E353" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F353" t="s" s="4">
+      <c r="F353" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G353" t="s" s="4">
+      <c r="G353" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H353" t="s" s="4">
+      <c r="H353" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10360,28 +10408,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="B355" t="s" s="4">
+      <c r="B355" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C355" t="s" s="4">
+      <c r="C355" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D355" t="s" s="4">
+      <c r="D355" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E355" t="s" s="4">
+      <c r="E355" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F355" t="s" s="4">
+      <c r="F355" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G355" t="s" s="4">
+      <c r="G355" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H355" t="s" s="4">
+      <c r="H355" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I355" t="s" s="4">
+      <c r="I355" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10498,10 +10546,10 @@
       <c r="I359">
         <f>((C359-C358)^2+(D359- D358)^2)^.5</f>
       </c>
-      <c r="J359" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K359" s="4" t="s">
+      <c r="J359" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K359" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L359" t="n">
@@ -10545,28 +10593,28 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="s" s="4">
+      <c r="A361" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B361" t="s" s="4">
+      <c r="B361" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C361" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D361" t="s" s="4">
+      <c r="C361" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D361" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E361" t="s" s="4">
+      <c r="E361" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F361" t="s" s="4">
+      <c r="F361" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G361" t="s" s="4">
+      <c r="G361" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H361" t="s" s="4">
+      <c r="H361" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10591,28 +10639,28 @@
       </c>
     </row>
     <row r="363">
-      <c r="B363" t="s" s="4">
+      <c r="B363" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C363" t="s" s="4">
+      <c r="C363" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D363" t="s" s="4">
+      <c r="D363" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E363" t="s" s="4">
+      <c r="E363" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F363" t="s" s="4">
+      <c r="F363" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G363" t="s" s="4">
+      <c r="G363" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H363" t="s" s="4">
+      <c r="H363" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I363" t="s" s="4">
+      <c r="I363" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10700,10 +10748,10 @@
       <c r="I366">
         <f>((C366-C365)^2+(D366- D365)^2)^.5</f>
       </c>
-      <c r="J366" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K366" s="4" t="s">
+      <c r="J366" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K366" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L366" t="n">
@@ -10747,28 +10795,28 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="s" s="4">
+      <c r="A368" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B368" t="s" s="4">
+      <c r="B368" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C368" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D368" t="s" s="4">
+      <c r="C368" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D368" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E368" t="s" s="4">
+      <c r="E368" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F368" t="s" s="4">
+      <c r="F368" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G368" t="s" s="4">
+      <c r="G368" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H368" t="s" s="4">
+      <c r="H368" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10793,28 +10841,28 @@
       </c>
     </row>
     <row r="370">
-      <c r="B370" t="s" s="4">
+      <c r="B370" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C370" t="s" s="4">
+      <c r="C370" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D370" t="s" s="4">
+      <c r="D370" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E370" t="s" s="4">
+      <c r="E370" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F370" t="s" s="4">
+      <c r="F370" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G370" t="s" s="4">
+      <c r="G370" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H370" t="s" s="4">
+      <c r="H370" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I370" t="s" s="4">
+      <c r="I370" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10931,10 +10979,10 @@
       <c r="I374">
         <f>((C374-C373)^2+(D374- D373)^2)^.5</f>
       </c>
-      <c r="J374" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K374" s="4" t="s">
+      <c r="J374" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K374" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L374" t="n">
@@ -10978,28 +11026,28 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" t="s" s="4">
+      <c r="A376" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B376" t="s" s="4">
+      <c r="B376" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C376" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D376" t="s" s="4">
+      <c r="C376" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D376" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E376" t="s" s="4">
+      <c r="E376" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F376" t="s" s="4">
+      <c r="F376" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G376" t="s" s="4">
+      <c r="G376" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H376" t="s" s="4">
+      <c r="H376" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11024,28 +11072,28 @@
       </c>
     </row>
     <row r="378">
-      <c r="B378" t="s" s="4">
+      <c r="B378" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C378" t="s" s="4">
+      <c r="C378" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D378" t="s" s="4">
+      <c r="D378" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E378" t="s" s="4">
+      <c r="E378" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F378" t="s" s="4">
+      <c r="F378" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G378" t="s" s="4">
+      <c r="G378" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H378" t="s" s="4">
+      <c r="H378" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I378" t="s" s="4">
+      <c r="I378" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11104,10 +11152,10 @@
       <c r="I380">
         <f>((C380-C379)^2+(D380- D379)^2)^.5</f>
       </c>
-      <c r="J380" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K380" s="4" t="s">
+      <c r="J380" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K380" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L380" t="n">
@@ -11151,28 +11199,28 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="s" s="4">
+      <c r="A382" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B382" t="s" s="4">
+      <c r="B382" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C382" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D382" t="s" s="4">
+      <c r="C382" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D382" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E382" t="s" s="4">
+      <c r="E382" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F382" t="s" s="4">
+      <c r="F382" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G382" t="s" s="4">
+      <c r="G382" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H382" t="s" s="4">
+      <c r="H382" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11197,28 +11245,28 @@
       </c>
     </row>
     <row r="384">
-      <c r="B384" t="s" s="4">
+      <c r="B384" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C384" t="s" s="4">
+      <c r="C384" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D384" t="s" s="4">
+      <c r="D384" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E384" t="s" s="4">
+      <c r="E384" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F384" t="s" s="4">
+      <c r="F384" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G384" t="s" s="4">
+      <c r="G384" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H384" t="s" s="4">
+      <c r="H384" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I384" t="s" s="4">
+      <c r="I384" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11277,10 +11325,10 @@
       <c r="I386">
         <f>((C386-C385)^2+(D386- D385)^2)^.5</f>
       </c>
-      <c r="J386" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K386" s="4" t="s">
+      <c r="J386" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K386" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L386" t="n">
@@ -11324,28 +11372,28 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="s" s="4">
+      <c r="A388" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B388" t="s" s="4">
+      <c r="B388" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C388" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D388" t="s" s="4">
+      <c r="C388" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D388" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E388" t="s" s="4">
+      <c r="E388" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F388" t="s" s="4">
+      <c r="F388" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G388" t="s" s="4">
+      <c r="G388" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H388" t="s" s="4">
+      <c r="H388" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11370,28 +11418,28 @@
       </c>
     </row>
     <row r="390">
-      <c r="B390" t="s" s="4">
+      <c r="B390" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C390" t="s" s="4">
+      <c r="C390" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D390" t="s" s="4">
+      <c r="D390" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E390" t="s" s="4">
+      <c r="E390" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F390" t="s" s="4">
+      <c r="F390" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G390" t="s" s="4">
+      <c r="G390" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H390" t="s" s="4">
+      <c r="H390" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I390" t="s" s="4">
+      <c r="I390" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11450,10 +11498,10 @@
       <c r="I392">
         <f>((C392-C391)^2+(D392- D391)^2)^.5</f>
       </c>
-      <c r="J392" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K392" s="4" t="s">
+      <c r="J392" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K392" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L392" t="n">
@@ -11497,28 +11545,28 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="s" s="4">
+      <c r="A394" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B394" t="s" s="4">
+      <c r="B394" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C394" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D394" t="s" s="4">
+      <c r="C394" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D394" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E394" t="s" s="4">
+      <c r="E394" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F394" t="s" s="4">
+      <c r="F394" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G394" t="s" s="4">
+      <c r="G394" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H394" t="s" s="4">
+      <c r="H394" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11543,28 +11591,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="B396" t="s" s="4">
+      <c r="B396" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C396" t="s" s="4">
+      <c r="C396" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D396" t="s" s="4">
+      <c r="D396" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E396" t="s" s="4">
+      <c r="E396" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F396" t="s" s="4">
+      <c r="F396" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G396" t="s" s="4">
+      <c r="G396" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H396" t="s" s="4">
+      <c r="H396" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I396" t="s" s="4">
+      <c r="I396" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11681,10 +11729,10 @@
       <c r="I400">
         <f>((C400-C399)^2+(D400- D399)^2)^.5</f>
       </c>
-      <c r="J400" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K400" s="4" t="s">
+      <c r="J400" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K400" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L400" t="n">
@@ -11728,28 +11776,28 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="s" s="4">
+      <c r="A402" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B402" t="s" s="4">
+      <c r="B402" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C402" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D402" t="s" s="4">
+      <c r="C402" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D402" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E402" t="s" s="4">
+      <c r="E402" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F402" t="s" s="4">
+      <c r="F402" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G402" t="s" s="4">
+      <c r="G402" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H402" t="s" s="4">
+      <c r="H402" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11774,28 +11822,28 @@
       </c>
     </row>
     <row r="404">
-      <c r="B404" t="s" s="4">
+      <c r="B404" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C404" t="s" s="4">
+      <c r="C404" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D404" t="s" s="4">
+      <c r="D404" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E404" t="s" s="4">
+      <c r="E404" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F404" t="s" s="4">
+      <c r="F404" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G404" t="s" s="4">
+      <c r="G404" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H404" t="s" s="4">
+      <c r="H404" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I404" t="s" s="4">
+      <c r="I404" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11854,10 +11902,10 @@
       <c r="I406">
         <f>((C406-C405)^2+(D406- D405)^2)^.5</f>
       </c>
-      <c r="J406" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K406" s="4" t="s">
+      <c r="J406" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K406" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L406" t="n">
@@ -11901,28 +11949,28 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="s" s="4">
+      <c r="A408" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B408" t="s" s="4">
+      <c r="B408" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C408" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D408" t="s" s="4">
+      <c r="C408" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D408" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E408" t="s" s="4">
+      <c r="E408" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F408" t="s" s="4">
+      <c r="F408" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G408" t="s" s="4">
+      <c r="G408" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H408" t="s" s="4">
+      <c r="H408" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11947,28 +11995,28 @@
       </c>
     </row>
     <row r="410">
-      <c r="B410" t="s" s="4">
+      <c r="B410" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C410" t="s" s="4">
+      <c r="C410" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D410" t="s" s="4">
+      <c r="D410" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E410" t="s" s="4">
+      <c r="E410" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F410" t="s" s="4">
+      <c r="F410" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G410" t="s" s="4">
+      <c r="G410" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H410" t="s" s="4">
+      <c r="H410" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I410" t="s" s="4">
+      <c r="I410" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12114,10 +12162,10 @@
       <c r="I415">
         <f>((C415-C414)^2+(D415- D414)^2)^.5</f>
       </c>
-      <c r="J415" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K415" s="4" t="s">
+      <c r="J415" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K415" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L415" t="n">
@@ -12161,28 +12209,28 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" t="s" s="4">
+      <c r="A417" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B417" t="s" s="4">
+      <c r="B417" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C417" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D417" t="s" s="4">
+      <c r="C417" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D417" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E417" t="s" s="4">
+      <c r="E417" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F417" t="s" s="4">
+      <c r="F417" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G417" t="s" s="4">
+      <c r="G417" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H417" t="s" s="4">
+      <c r="H417" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12207,28 +12255,28 @@
       </c>
     </row>
     <row r="419">
-      <c r="B419" t="s" s="4">
+      <c r="B419" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C419" t="s" s="4">
+      <c r="C419" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D419" t="s" s="4">
+      <c r="D419" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E419" t="s" s="4">
+      <c r="E419" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F419" t="s" s="4">
+      <c r="F419" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G419" t="s" s="4">
+      <c r="G419" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H419" t="s" s="4">
+      <c r="H419" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I419" t="s" s="4">
+      <c r="I419" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12287,10 +12335,10 @@
       <c r="I421">
         <f>((C421-C420)^2+(D421- D420)^2)^.5</f>
       </c>
-      <c r="J421" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K421" s="4" t="s">
+      <c r="J421" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K421" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L421" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14016" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17520" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="12">
+      <c r="C3" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -421,10 +439,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="12" t="s">
+      <c r="J8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -468,28 +486,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="12">
+      <c r="A10" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="12">
+      <c r="B10" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="12">
+      <c r="C10" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="12">
+      <c r="E10" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="12">
+      <c r="F10" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="12">
+      <c r="G10" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="12">
+      <c r="H10" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -514,28 +532,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="12">
+      <c r="B12" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="12">
+      <c r="C12" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="12">
+      <c r="D12" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="12">
+      <c r="E12" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="12">
+      <c r="F12" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="12">
+      <c r="G12" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="12">
+      <c r="H12" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="12">
+      <c r="I12" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -623,10 +641,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="12" t="s">
+      <c r="J15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -670,28 +688,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="12">
+      <c r="A17" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="12">
+      <c r="B17" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="12">
+      <c r="C17" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="12">
+      <c r="E17" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="12">
+      <c r="F17" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="12">
+      <c r="G17" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="12">
+      <c r="H17" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -716,28 +734,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="12">
+      <c r="B19" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="12">
+      <c r="C19" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="12">
+      <c r="D19" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="12">
+      <c r="E19" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="12">
+      <c r="F19" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="12">
+      <c r="G19" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="12">
+      <c r="H19" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="12">
+      <c r="I19" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -825,10 +843,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="12" t="s">
+      <c r="J22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -872,28 +890,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="12">
+      <c r="A24" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="12">
+      <c r="B24" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="12">
+      <c r="C24" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="12">
+      <c r="E24" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="12">
+      <c r="F24" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="12">
+      <c r="G24" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="12">
+      <c r="H24" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -918,28 +936,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="12">
+      <c r="B26" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="12">
+      <c r="C26" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="12">
+      <c r="D26" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="12">
+      <c r="E26" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="12">
+      <c r="F26" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="12">
+      <c r="G26" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="12">
+      <c r="H26" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="12">
+      <c r="I26" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -998,10 +1016,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="12" t="s">
+      <c r="J28" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -1045,28 +1063,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="12">
+      <c r="A30" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="12">
+      <c r="B30" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="12">
+      <c r="C30" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="12">
+      <c r="E30" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="12">
+      <c r="F30" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="12">
+      <c r="G30" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="12">
+      <c r="H30" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1091,28 +1109,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="12">
+      <c r="B32" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="12">
+      <c r="C32" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="12">
+      <c r="D32" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="12">
+      <c r="E32" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="12">
+      <c r="F32" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="12">
+      <c r="G32" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="12">
+      <c r="H32" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="12">
+      <c r="I32" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1200,10 +1218,10 @@
       <c r="I35">
         <f>((C35-C34)^2+(D35- D34)^2)^.5</f>
       </c>
-      <c r="J35" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="12" t="s">
+      <c r="J35" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="n">
@@ -1247,28 +1265,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="12">
+      <c r="A37" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B37" t="s" s="12">
+      <c r="B37" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C37" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s" s="12">
+      <c r="C37" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E37" t="s" s="12">
+      <c r="E37" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F37" t="s" s="12">
+      <c r="F37" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G37" t="s" s="12">
+      <c r="G37" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H37" t="s" s="12">
+      <c r="H37" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1293,28 +1311,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="12">
+      <c r="B39" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C39" t="s" s="12">
+      <c r="C39" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D39" t="s" s="12">
+      <c r="D39" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E39" t="s" s="12">
+      <c r="E39" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F39" t="s" s="12">
+      <c r="F39" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G39" t="s" s="12">
+      <c r="G39" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H39" t="s" s="12">
+      <c r="H39" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I39" t="s" s="12">
+      <c r="I39" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1402,10 +1420,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="12" t="s">
+      <c r="J42" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1449,28 +1467,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="12">
+      <c r="A44" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="12">
+      <c r="B44" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="12">
+      <c r="C44" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="12">
+      <c r="E44" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="12">
+      <c r="F44" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="12">
+      <c r="G44" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="12">
+      <c r="H44" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1495,28 +1513,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="12">
+      <c r="B46" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="12">
+      <c r="C46" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="12">
+      <c r="D46" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="12">
+      <c r="E46" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="12">
+      <c r="F46" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="12">
+      <c r="G46" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="12">
+      <c r="H46" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="12">
+      <c r="I46" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1575,10 +1593,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="12" t="s">
+      <c r="J48" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1622,28 +1640,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="12">
+      <c r="A50" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="12">
+      <c r="B50" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="12">
+      <c r="C50" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="12">
+      <c r="E50" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="12">
+      <c r="F50" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="12">
+      <c r="G50" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="12">
+      <c r="H50" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1668,28 +1686,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="12">
+      <c r="B52" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="12">
+      <c r="C52" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="12">
+      <c r="D52" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="12">
+      <c r="E52" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="12">
+      <c r="F52" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="12">
+      <c r="G52" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="12">
+      <c r="H52" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="12">
+      <c r="I52" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1748,10 +1766,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="12" t="s">
+      <c r="J54" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1795,28 +1813,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="12">
+      <c r="A56" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="12">
+      <c r="B56" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="12">
+      <c r="C56" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="12">
+      <c r="E56" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="12">
+      <c r="F56" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="12">
+      <c r="G56" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="12">
+      <c r="H56" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1841,28 +1859,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="12">
+      <c r="B58" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="12">
+      <c r="C58" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="12">
+      <c r="D58" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="12">
+      <c r="E58" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="12">
+      <c r="F58" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="12">
+      <c r="G58" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="12">
+      <c r="H58" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="12">
+      <c r="I58" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1921,10 +1939,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="12" t="s">
+      <c r="J60" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1968,28 +1986,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="12">
+      <c r="A62" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="12">
+      <c r="B62" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="12">
+      <c r="C62" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="12">
+      <c r="E62" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="12">
+      <c r="F62" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="12">
+      <c r="G62" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="12">
+      <c r="H62" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2014,28 +2032,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="12">
+      <c r="B64" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="12">
+      <c r="C64" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="12">
+      <c r="D64" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="12">
+      <c r="E64" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="12">
+      <c r="F64" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="12">
+      <c r="G64" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="12">
+      <c r="H64" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="12">
+      <c r="I64" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2123,10 +2141,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="12" t="s">
+      <c r="J67" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2170,28 +2188,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="12">
+      <c r="A69" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="12">
+      <c r="B69" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="12">
+      <c r="C69" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="12">
+      <c r="E69" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="12">
+      <c r="F69" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="12">
+      <c r="G69" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="12">
+      <c r="H69" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2216,28 +2234,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="12">
+      <c r="B71" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="12">
+      <c r="C71" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="12">
+      <c r="D71" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="12">
+      <c r="E71" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="12">
+      <c r="F71" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="12">
+      <c r="G71" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="12">
+      <c r="H71" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="12">
+      <c r="I71" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2296,10 +2314,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K73" s="12" t="s">
+      <c r="J73" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2343,28 +2361,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="12">
+      <c r="A75" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="12">
+      <c r="B75" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s" s="12">
+      <c r="C75" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="12">
+      <c r="E75" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="12">
+      <c r="F75" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="12">
+      <c r="G75" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="12">
+      <c r="H75" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2389,28 +2407,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="12">
+      <c r="B77" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="12">
+      <c r="C77" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="12">
+      <c r="D77" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="12">
+      <c r="E77" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="12">
+      <c r="F77" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="12">
+      <c r="G77" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="12">
+      <c r="H77" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="12">
+      <c r="I77" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2469,10 +2487,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="12" t="s">
+      <c r="J79" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2516,28 +2534,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="12">
+      <c r="A81" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="12">
+      <c r="B81" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="12">
+      <c r="C81" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="12">
+      <c r="E81" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="12">
+      <c r="F81" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="12">
+      <c r="G81" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="12">
+      <c r="H81" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2562,28 +2580,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="12">
+      <c r="B83" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="12">
+      <c r="C83" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="12">
+      <c r="D83" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="12">
+      <c r="E83" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="12">
+      <c r="F83" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="12">
+      <c r="G83" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="12">
+      <c r="H83" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="12">
+      <c r="I83" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2642,10 +2660,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="12" t="s">
+      <c r="J85" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2689,28 +2707,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="12">
+      <c r="A87" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="12">
+      <c r="B87" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="12">
+      <c r="C87" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="12">
+      <c r="E87" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="12">
+      <c r="F87" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="12">
+      <c r="G87" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="12">
+      <c r="H87" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2735,28 +2753,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="12">
+      <c r="B89" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="12">
+      <c r="C89" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="12">
+      <c r="D89" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="12">
+      <c r="E89" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="12">
+      <c r="F89" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="12">
+      <c r="G89" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="12">
+      <c r="H89" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="12">
+      <c r="I89" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2844,10 +2862,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="12" t="s">
+      <c r="J92" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2891,28 +2909,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="12">
+      <c r="A94" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="12">
+      <c r="B94" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="12">
+      <c r="C94" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="12">
+      <c r="E94" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="12">
+      <c r="F94" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="12">
+      <c r="G94" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="12">
+      <c r="H94" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2937,28 +2955,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="12">
+      <c r="B96" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="12">
+      <c r="C96" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="12">
+      <c r="D96" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="12">
+      <c r="E96" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="12">
+      <c r="F96" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="12">
+      <c r="G96" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="12">
+      <c r="H96" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="12">
+      <c r="I96" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3017,10 +3035,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="12" t="s">
+      <c r="J98" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3064,28 +3082,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="12">
+      <c r="A100" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="12">
+      <c r="B100" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="12">
+      <c r="C100" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="12">
+      <c r="E100" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="12">
+      <c r="F100" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="12">
+      <c r="G100" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="12">
+      <c r="H100" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3110,28 +3128,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="12">
+      <c r="B102" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="12">
+      <c r="C102" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="12">
+      <c r="D102" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="12">
+      <c r="E102" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="12">
+      <c r="F102" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="12">
+      <c r="G102" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="12">
+      <c r="H102" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="12">
+      <c r="I102" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3219,10 +3237,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="12" t="s">
+      <c r="J105" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3266,28 +3284,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="12">
+      <c r="A107" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="12">
+      <c r="B107" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="12">
+      <c r="C107" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="12">
+      <c r="E107" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="12">
+      <c r="F107" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="12">
+      <c r="G107" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="12">
+      <c r="H107" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3312,28 +3330,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="12">
+      <c r="B109" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="12">
+      <c r="C109" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="12">
+      <c r="D109" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="12">
+      <c r="E109" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="12">
+      <c r="F109" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="12">
+      <c r="G109" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="12">
+      <c r="H109" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="12">
+      <c r="I109" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3450,10 +3468,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="12" t="s">
+      <c r="J113" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3497,28 +3515,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="12">
+      <c r="A115" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="12">
+      <c r="B115" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="12">
+      <c r="C115" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="12">
+      <c r="E115" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="12">
+      <c r="F115" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="12">
+      <c r="G115" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="12">
+      <c r="H115" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3543,28 +3561,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="12">
+      <c r="B117" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="12">
+      <c r="C117" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="12">
+      <c r="D117" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="12">
+      <c r="E117" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="12">
+      <c r="F117" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="12">
+      <c r="G117" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="12">
+      <c r="H117" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="12">
+      <c r="I117" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3623,10 +3641,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="12" t="s">
+      <c r="J119" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3670,28 +3688,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="12">
+      <c r="A121" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="12">
+      <c r="B121" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="12">
+      <c r="C121" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="12">
+      <c r="E121" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="12">
+      <c r="F121" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="12">
+      <c r="G121" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="12">
+      <c r="H121" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3716,28 +3734,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="12">
+      <c r="B123" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="12">
+      <c r="C123" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="12">
+      <c r="D123" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="12">
+      <c r="E123" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="12">
+      <c r="F123" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="12">
+      <c r="G123" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="12">
+      <c r="H123" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="12">
+      <c r="I123" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3796,10 +3814,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="12" t="s">
+      <c r="J125" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3843,28 +3861,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="12">
+      <c r="A127" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="12">
+      <c r="B127" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="12">
+      <c r="C127" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="12">
+      <c r="E127" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="12">
+      <c r="F127" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="12">
+      <c r="G127" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="12">
+      <c r="H127" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3889,28 +3907,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="12">
+      <c r="B129" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="12">
+      <c r="C129" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="12">
+      <c r="D129" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="12">
+      <c r="E129" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="12">
+      <c r="F129" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="12">
+      <c r="G129" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="12">
+      <c r="H129" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="12">
+      <c r="I129" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3969,10 +3987,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="12" t="s">
+      <c r="J131" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -4016,28 +4034,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="12">
+      <c r="A133" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="12">
+      <c r="B133" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="12">
+      <c r="C133" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="12">
+      <c r="E133" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="12">
+      <c r="F133" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="12">
+      <c r="G133" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="12">
+      <c r="H133" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4062,28 +4080,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="12">
+      <c r="B135" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="12">
+      <c r="C135" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="12">
+      <c r="D135" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="12">
+      <c r="E135" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="12">
+      <c r="F135" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="12">
+      <c r="G135" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="12">
+      <c r="H135" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="12">
+      <c r="I135" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4142,10 +4160,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="12" t="s">
+      <c r="J137" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4189,28 +4207,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="12">
+      <c r="A139" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="12">
+      <c r="B139" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="12">
+      <c r="C139" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="12">
+      <c r="E139" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="12">
+      <c r="F139" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="12">
+      <c r="G139" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="12">
+      <c r="H139" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4235,28 +4253,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="12">
+      <c r="B141" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="12">
+      <c r="C141" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="12">
+      <c r="D141" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="12">
+      <c r="E141" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="12">
+      <c r="F141" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="12">
+      <c r="G141" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="12">
+      <c r="H141" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="12">
+      <c r="I141" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4315,10 +4333,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="12" t="s">
+      <c r="J143" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4362,28 +4380,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="12">
+      <c r="A145" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="12">
+      <c r="B145" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="12">
+      <c r="C145" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="12">
+      <c r="E145" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="12">
+      <c r="F145" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="12">
+      <c r="G145" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="12">
+      <c r="H145" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4408,28 +4426,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="12">
+      <c r="B147" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="12">
+      <c r="C147" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="12">
+      <c r="D147" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="12">
+      <c r="E147" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="12">
+      <c r="F147" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="12">
+      <c r="G147" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="12">
+      <c r="H147" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="12">
+      <c r="I147" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4517,10 +4535,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="12" t="s">
+      <c r="J150" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4564,28 +4582,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="12">
+      <c r="A152" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="12">
+      <c r="B152" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="12">
+      <c r="C152" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="12">
+      <c r="E152" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="12">
+      <c r="F152" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="12">
+      <c r="G152" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="12">
+      <c r="H152" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4610,28 +4628,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="12">
+      <c r="B154" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="12">
+      <c r="C154" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="12">
+      <c r="D154" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="12">
+      <c r="E154" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="12">
+      <c r="F154" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="12">
+      <c r="G154" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="12">
+      <c r="H154" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="12">
+      <c r="I154" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4690,10 +4708,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="12" t="s">
+      <c r="J156" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4737,28 +4755,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="12">
+      <c r="A158" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="12">
+      <c r="B158" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="12">
+      <c r="C158" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="12">
+      <c r="E158" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="12">
+      <c r="F158" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="12">
+      <c r="G158" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="12">
+      <c r="H158" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4783,28 +4801,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="12">
+      <c r="B160" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="12">
+      <c r="C160" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="12">
+      <c r="D160" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="12">
+      <c r="E160" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="12">
+      <c r="F160" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="12">
+      <c r="G160" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="12">
+      <c r="H160" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="12">
+      <c r="I160" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4921,10 +4939,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="12" t="s">
+      <c r="J164" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4968,28 +4986,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="12">
+      <c r="A166" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="12">
+      <c r="B166" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="12">
+      <c r="C166" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="12">
+      <c r="E166" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="12">
+      <c r="F166" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="12">
+      <c r="G166" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="12">
+      <c r="H166" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5014,28 +5032,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="12">
+      <c r="B168" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="12">
+      <c r="C168" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="12">
+      <c r="D168" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="12">
+      <c r="E168" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="12">
+      <c r="F168" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="12">
+      <c r="G168" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="12">
+      <c r="H168" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="12">
+      <c r="I168" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5094,10 +5112,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="12" t="s">
+      <c r="J170" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5141,28 +5159,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="12">
+      <c r="A172" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="12">
+      <c r="B172" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="12">
+      <c r="C172" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="12">
+      <c r="E172" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="12">
+      <c r="F172" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="12">
+      <c r="G172" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="12">
+      <c r="H172" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5187,28 +5205,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="12">
+      <c r="B174" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="12">
+      <c r="C174" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="12">
+      <c r="D174" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="12">
+      <c r="E174" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="12">
+      <c r="F174" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="12">
+      <c r="G174" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="12">
+      <c r="H174" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="12">
+      <c r="I174" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5267,10 +5285,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="12" t="s">
+      <c r="J176" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5314,28 +5332,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="12">
+      <c r="A178" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="12">
+      <c r="B178" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="12">
+      <c r="C178" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="12">
+      <c r="E178" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="12">
+      <c r="F178" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="12">
+      <c r="G178" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="12">
+      <c r="H178" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5360,28 +5378,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="12">
+      <c r="B180" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="12">
+      <c r="C180" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="12">
+      <c r="D180" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="12">
+      <c r="E180" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="12">
+      <c r="F180" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="12">
+      <c r="G180" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="12">
+      <c r="H180" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="12">
+      <c r="I180" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5440,10 +5458,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="12" t="s">
+      <c r="J182" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5487,28 +5505,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="12">
+      <c r="A184" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="12">
+      <c r="B184" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="12">
+      <c r="C184" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="12">
+      <c r="E184" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="12">
+      <c r="F184" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="12">
+      <c r="G184" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="12">
+      <c r="H184" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5533,28 +5551,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="12">
+      <c r="B186" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="12">
+      <c r="C186" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="12">
+      <c r="D186" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="12">
+      <c r="E186" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="12">
+      <c r="F186" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="12">
+      <c r="G186" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="12">
+      <c r="H186" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="12">
+      <c r="I186" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5613,10 +5631,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="12" t="s">
+      <c r="J188" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5660,28 +5678,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="12">
+      <c r="A190" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="12">
+      <c r="B190" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="12">
+      <c r="C190" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="12">
+      <c r="E190" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="12">
+      <c r="F190" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="12">
+      <c r="G190" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="12">
+      <c r="H190" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5706,28 +5724,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="12">
+      <c r="B192" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="12">
+      <c r="C192" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="12">
+      <c r="D192" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="12">
+      <c r="E192" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="12">
+      <c r="F192" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="12">
+      <c r="G192" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="12">
+      <c r="H192" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="12">
+      <c r="I192" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5786,10 +5804,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="12" t="s">
+      <c r="J194" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5833,28 +5851,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="12">
+      <c r="A196" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="12">
+      <c r="B196" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="12">
+      <c r="C196" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="12">
+      <c r="E196" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="12">
+      <c r="F196" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="12">
+      <c r="G196" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="12">
+      <c r="H196" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5879,28 +5897,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="12">
+      <c r="B198" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="12">
+      <c r="C198" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="12">
+      <c r="D198" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="12">
+      <c r="E198" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="12">
+      <c r="F198" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="12">
+      <c r="G198" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="12">
+      <c r="H198" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="12">
+      <c r="I198" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5959,10 +5977,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="12" t="s">
+      <c r="J200" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -6006,28 +6024,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="12">
+      <c r="A202" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="12">
+      <c r="B202" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="12">
+      <c r="C202" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="12">
+      <c r="E202" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="12">
+      <c r="F202" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="12">
+      <c r="G202" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="12">
+      <c r="H202" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6052,28 +6070,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="12">
+      <c r="B204" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="12">
+      <c r="C204" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="12">
+      <c r="D204" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="12">
+      <c r="E204" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="12">
+      <c r="F204" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="12">
+      <c r="G204" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="12">
+      <c r="H204" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="12">
+      <c r="I204" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6161,10 +6179,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="12" t="s">
+      <c r="J207" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6208,28 +6226,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="12">
+      <c r="A209" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="12">
+      <c r="B209" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="12">
+      <c r="C209" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="12">
+      <c r="E209" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="12">
+      <c r="F209" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="12">
+      <c r="G209" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="12">
+      <c r="H209" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6254,28 +6272,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="12">
+      <c r="B211" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="12">
+      <c r="C211" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="12">
+      <c r="D211" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="12">
+      <c r="E211" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="12">
+      <c r="F211" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="12">
+      <c r="G211" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="12">
+      <c r="H211" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="12">
+      <c r="I211" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6334,10 +6352,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="12" t="s">
+      <c r="J213" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6381,28 +6399,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="12">
+      <c r="A215" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="12">
+      <c r="B215" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="12">
+      <c r="C215" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="12">
+      <c r="E215" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="12">
+      <c r="F215" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="12">
+      <c r="G215" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="12">
+      <c r="H215" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6427,28 +6445,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="12">
+      <c r="B217" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="12">
+      <c r="C217" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="12">
+      <c r="D217" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="12">
+      <c r="E217" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="12">
+      <c r="F217" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="12">
+      <c r="G217" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="12">
+      <c r="H217" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="12">
+      <c r="I217" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6507,10 +6525,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="12" t="s">
+      <c r="J219" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6554,28 +6572,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="12">
+      <c r="A221" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="12">
+      <c r="B221" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="12">
+      <c r="C221" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="12">
+      <c r="E221" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="12">
+      <c r="F221" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="12">
+      <c r="G221" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="12">
+      <c r="H221" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6600,28 +6618,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="12">
+      <c r="B223" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="12">
+      <c r="C223" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="12">
+      <c r="D223" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="12">
+      <c r="E223" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="12">
+      <c r="F223" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="12">
+      <c r="G223" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="12">
+      <c r="H223" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="12">
+      <c r="I223" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6767,10 +6785,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="12" t="s">
+      <c r="J228" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6814,28 +6832,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="12">
+      <c r="A230" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="12">
+      <c r="B230" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="12">
+      <c r="C230" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="12">
+      <c r="E230" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="12">
+      <c r="F230" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="12">
+      <c r="G230" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="12">
+      <c r="H230" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6860,28 +6878,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="12">
+      <c r="B232" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="12">
+      <c r="C232" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="12">
+      <c r="D232" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="12">
+      <c r="E232" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="12">
+      <c r="F232" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="12">
+      <c r="G232" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="12">
+      <c r="H232" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="12">
+      <c r="I232" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6940,10 +6958,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="12" t="s">
+      <c r="J234" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6987,28 +7005,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="12">
+      <c r="A236" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="12">
+      <c r="B236" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="12">
+      <c r="C236" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="12">
+      <c r="E236" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="12">
+      <c r="F236" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="12">
+      <c r="G236" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="12">
+      <c r="H236" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7033,28 +7051,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="12">
+      <c r="B238" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="12">
+      <c r="C238" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="12">
+      <c r="D238" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="12">
+      <c r="E238" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="12">
+      <c r="F238" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="12">
+      <c r="G238" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="12">
+      <c r="H238" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="12">
+      <c r="I238" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7113,10 +7131,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="12" t="s">
+      <c r="J240" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7160,28 +7178,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="12">
+      <c r="A242" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="12">
+      <c r="B242" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="12">
+      <c r="C242" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="12">
+      <c r="E242" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="12">
+      <c r="F242" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="12">
+      <c r="G242" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="12">
+      <c r="H242" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7206,28 +7224,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="12">
+      <c r="B244" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="12">
+      <c r="C244" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="12">
+      <c r="D244" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="12">
+      <c r="E244" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="12">
+      <c r="F244" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="12">
+      <c r="G244" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="12">
+      <c r="H244" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="12">
+      <c r="I244" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7286,10 +7304,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="12" t="s">
+      <c r="J246" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7333,28 +7351,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="12">
+      <c r="A248" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="12">
+      <c r="B248" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="12">
+      <c r="C248" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="12">
+      <c r="E248" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="12">
+      <c r="F248" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="12">
+      <c r="G248" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="12">
+      <c r="H248" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7379,28 +7397,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="12">
+      <c r="B250" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="12">
+      <c r="C250" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="12">
+      <c r="D250" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="12">
+      <c r="E250" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="12">
+      <c r="F250" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="12">
+      <c r="G250" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="12">
+      <c r="H250" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="12">
+      <c r="I250" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7459,10 +7477,10 @@
       <c r="I252">
         <f>((C252-C251)^2+(D252- D251)^2)^.5</f>
       </c>
-      <c r="J252" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K252" s="12" t="s">
+      <c r="J252" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L252" t="n">
@@ -7506,28 +7524,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="12">
+      <c r="A254" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B254" t="s" s="12">
+      <c r="B254" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C254" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D254" t="s" s="12">
+      <c r="C254" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E254" t="s" s="12">
+      <c r="E254" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F254" t="s" s="12">
+      <c r="F254" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G254" t="s" s="12">
+      <c r="G254" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H254" t="s" s="12">
+      <c r="H254" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7552,28 +7570,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="12">
+      <c r="B256" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C256" t="s" s="12">
+      <c r="C256" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D256" t="s" s="12">
+      <c r="D256" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E256" t="s" s="12">
+      <c r="E256" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F256" t="s" s="12">
+      <c r="F256" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G256" t="s" s="12">
+      <c r="G256" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H256" t="s" s="12">
+      <c r="H256" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I256" t="s" s="12">
+      <c r="I256" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7690,10 +7708,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="12" t="s">
+      <c r="J260" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7737,28 +7755,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="12">
+      <c r="A262" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="12">
+      <c r="B262" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="12">
+      <c r="C262" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="12">
+      <c r="E262" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="12">
+      <c r="F262" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="12">
+      <c r="G262" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="12">
+      <c r="H262" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7783,28 +7801,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="12">
+      <c r="B264" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="12">
+      <c r="C264" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="12">
+      <c r="D264" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="12">
+      <c r="E264" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="12">
+      <c r="F264" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="12">
+      <c r="G264" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="12">
+      <c r="H264" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="12">
+      <c r="I264" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7863,10 +7881,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="12" t="s">
+      <c r="J266" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7910,28 +7928,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="12">
+      <c r="A268" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="12">
+      <c r="B268" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="12">
+      <c r="C268" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="12">
+      <c r="E268" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="12">
+      <c r="F268" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="12">
+      <c r="G268" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="12">
+      <c r="H268" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7956,28 +7974,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="12">
+      <c r="B270" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="12">
+      <c r="C270" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="12">
+      <c r="D270" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="12">
+      <c r="E270" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="12">
+      <c r="F270" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="12">
+      <c r="G270" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="12">
+      <c r="H270" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="12">
+      <c r="I270" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8036,10 +8054,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="12" t="s">
+      <c r="J272" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8083,28 +8101,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="12">
+      <c r="A274" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="12">
+      <c r="B274" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="12">
+      <c r="C274" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="12">
+      <c r="E274" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="12">
+      <c r="F274" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="12">
+      <c r="G274" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="12">
+      <c r="H274" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8129,28 +8147,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="12">
+      <c r="B276" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="12">
+      <c r="C276" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="12">
+      <c r="D276" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="12">
+      <c r="E276" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="12">
+      <c r="F276" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="12">
+      <c r="G276" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="12">
+      <c r="H276" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="12">
+      <c r="I276" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8209,10 +8227,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="12" t="s">
+      <c r="J278" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8256,28 +8274,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="12">
+      <c r="A280" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="12">
+      <c r="B280" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="12">
+      <c r="C280" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="12">
+      <c r="E280" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="12">
+      <c r="F280" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="12">
+      <c r="G280" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="12">
+      <c r="H280" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8302,28 +8320,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="12">
+      <c r="B282" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="12">
+      <c r="C282" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="12">
+      <c r="D282" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="12">
+      <c r="E282" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="12">
+      <c r="F282" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="12">
+      <c r="G282" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="12">
+      <c r="H282" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="12">
+      <c r="I282" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8411,10 +8429,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="12" t="s">
+      <c r="J285" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8458,28 +8476,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="12">
+      <c r="A287" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="12">
+      <c r="B287" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="12">
+      <c r="C287" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="12">
+      <c r="E287" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="12">
+      <c r="F287" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="12">
+      <c r="G287" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="12">
+      <c r="H287" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8504,28 +8522,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="12">
+      <c r="B289" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="12">
+      <c r="C289" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="12">
+      <c r="D289" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="12">
+      <c r="E289" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="12">
+      <c r="F289" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="12">
+      <c r="G289" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="12">
+      <c r="H289" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="12">
+      <c r="I289" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8584,10 +8602,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="12" t="s">
+      <c r="J291" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
@@ -8631,28 +8649,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s" s="12">
+      <c r="A293" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B293" t="s" s="12">
+      <c r="B293" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C293" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D293" t="s" s="12">
+      <c r="C293" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E293" t="s" s="12">
+      <c r="E293" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F293" t="s" s="12">
+      <c r="F293" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G293" t="s" s="12">
+      <c r="G293" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H293" t="s" s="12">
+      <c r="H293" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8677,28 +8695,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="B295" t="s" s="12">
+      <c r="B295" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C295" t="s" s="12">
+      <c r="C295" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D295" t="s" s="12">
+      <c r="D295" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E295" t="s" s="12">
+      <c r="E295" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F295" t="s" s="12">
+      <c r="F295" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G295" t="s" s="12">
+      <c r="G295" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H295" t="s" s="12">
+      <c r="H295" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I295" t="s" s="12">
+      <c r="I295" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8757,10 +8775,10 @@
       <c r="I297">
         <f>((C297-C296)^2+(D297- D296)^2)^.5</f>
       </c>
-      <c r="J297" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K297" s="12" t="s">
+      <c r="J297" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K297" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L297" t="n">
@@ -8804,28 +8822,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s" s="12">
+      <c r="A299" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B299" t="s" s="12">
+      <c r="B299" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C299" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D299" t="s" s="12">
+      <c r="C299" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E299" t="s" s="12">
+      <c r="E299" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F299" t="s" s="12">
+      <c r="F299" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G299" t="s" s="12">
+      <c r="G299" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H299" t="s" s="12">
+      <c r="H299" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8850,28 +8868,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="s" s="12">
+      <c r="B301" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C301" t="s" s="12">
+      <c r="C301" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D301" t="s" s="12">
+      <c r="D301" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E301" t="s" s="12">
+      <c r="E301" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F301" t="s" s="12">
+      <c r="F301" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G301" t="s" s="12">
+      <c r="G301" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H301" t="s" s="12">
+      <c r="H301" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I301" t="s" s="12">
+      <c r="I301" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8930,10 +8948,10 @@
       <c r="I303">
         <f>((C303-C302)^2+(D303- D302)^2)^.5</f>
       </c>
-      <c r="J303" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K303" s="12" t="s">
+      <c r="J303" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K303" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L303" t="n">
@@ -8977,28 +8995,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="12">
+      <c r="A305" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B305" t="s" s="12">
+      <c r="B305" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C305" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D305" t="s" s="12">
+      <c r="C305" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E305" t="s" s="12">
+      <c r="E305" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F305" t="s" s="12">
+      <c r="F305" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G305" t="s" s="12">
+      <c r="G305" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H305" t="s" s="12">
+      <c r="H305" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9023,28 +9041,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="12">
+      <c r="B307" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C307" t="s" s="12">
+      <c r="C307" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D307" t="s" s="12">
+      <c r="D307" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E307" t="s" s="12">
+      <c r="E307" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F307" t="s" s="12">
+      <c r="F307" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G307" t="s" s="12">
+      <c r="G307" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H307" t="s" s="12">
+      <c r="H307" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I307" t="s" s="12">
+      <c r="I307" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9103,10 +9121,10 @@
       <c r="I309">
         <f>((C309-C308)^2+(D309- D308)^2)^.5</f>
       </c>
-      <c r="J309" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K309" s="12" t="s">
+      <c r="J309" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K309" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L309" t="n">
@@ -9150,28 +9168,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="12">
+      <c r="A311" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B311" t="s" s="12">
+      <c r="B311" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C311" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D311" t="s" s="12">
+      <c r="C311" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E311" t="s" s="12">
+      <c r="E311" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F311" t="s" s="12">
+      <c r="F311" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G311" t="s" s="12">
+      <c r="G311" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H311" t="s" s="12">
+      <c r="H311" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9196,28 +9214,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="B313" t="s" s="12">
+      <c r="B313" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C313" t="s" s="12">
+      <c r="C313" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D313" t="s" s="12">
+      <c r="D313" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E313" t="s" s="12">
+      <c r="E313" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F313" t="s" s="12">
+      <c r="F313" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G313" t="s" s="12">
+      <c r="G313" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H313" t="s" s="12">
+      <c r="H313" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I313" t="s" s="12">
+      <c r="I313" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9276,10 +9294,10 @@
       <c r="I315">
         <f>((C315-C314)^2+(D315- D314)^2)^.5</f>
       </c>
-      <c r="J315" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K315" s="12" t="s">
+      <c r="J315" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K315" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L315" t="n">
@@ -9323,28 +9341,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="s" s="12">
+      <c r="A317" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B317" t="s" s="12">
+      <c r="B317" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C317" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D317" t="s" s="12">
+      <c r="C317" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D317" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E317" t="s" s="12">
+      <c r="E317" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F317" t="s" s="12">
+      <c r="F317" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G317" t="s" s="12">
+      <c r="G317" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H317" t="s" s="12">
+      <c r="H317" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9369,28 +9387,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="B319" t="s" s="12">
+      <c r="B319" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C319" t="s" s="12">
+      <c r="C319" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D319" t="s" s="12">
+      <c r="D319" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E319" t="s" s="12">
+      <c r="E319" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F319" t="s" s="12">
+      <c r="F319" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G319" t="s" s="12">
+      <c r="G319" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H319" t="s" s="12">
+      <c r="H319" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I319" t="s" s="12">
+      <c r="I319" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9449,10 +9467,10 @@
       <c r="I321">
         <f>((C321-C320)^2+(D321- D320)^2)^.5</f>
       </c>
-      <c r="J321" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K321" s="12" t="s">
+      <c r="J321" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K321" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L321" t="n">
@@ -9496,28 +9514,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="s" s="12">
+      <c r="A323" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B323" t="s" s="12">
+      <c r="B323" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C323" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D323" t="s" s="12">
+      <c r="C323" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D323" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E323" t="s" s="12">
+      <c r="E323" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F323" t="s" s="12">
+      <c r="F323" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G323" t="s" s="12">
+      <c r="G323" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H323" t="s" s="12">
+      <c r="H323" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9542,28 +9560,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="B325" t="s" s="12">
+      <c r="B325" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C325" t="s" s="12">
+      <c r="C325" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D325" t="s" s="12">
+      <c r="D325" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E325" t="s" s="12">
+      <c r="E325" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F325" t="s" s="12">
+      <c r="F325" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G325" t="s" s="12">
+      <c r="G325" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H325" t="s" s="12">
+      <c r="H325" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I325" t="s" s="12">
+      <c r="I325" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9651,10 +9669,10 @@
       <c r="I328">
         <f>((C328-C327)^2+(D328- D327)^2)^.5</f>
       </c>
-      <c r="J328" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K328" s="12" t="s">
+      <c r="J328" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K328" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L328" t="n">
@@ -9698,28 +9716,28 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="s" s="12">
+      <c r="A330" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B330" t="s" s="12">
+      <c r="B330" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C330" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D330" t="s" s="12">
+      <c r="C330" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D330" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E330" t="s" s="12">
+      <c r="E330" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F330" t="s" s="12">
+      <c r="F330" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G330" t="s" s="12">
+      <c r="G330" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H330" t="s" s="12">
+      <c r="H330" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9744,28 +9762,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="B332" t="s" s="12">
+      <c r="B332" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C332" t="s" s="12">
+      <c r="C332" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D332" t="s" s="12">
+      <c r="D332" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E332" t="s" s="12">
+      <c r="E332" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F332" t="s" s="12">
+      <c r="F332" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G332" t="s" s="12">
+      <c r="G332" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H332" t="s" s="12">
+      <c r="H332" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I332" t="s" s="12">
+      <c r="I332" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9824,10 +9842,10 @@
       <c r="I334">
         <f>((C334-C333)^2+(D334- D333)^2)^.5</f>
       </c>
-      <c r="J334" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K334" s="12" t="s">
+      <c r="J334" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K334" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L334" t="n">
@@ -9871,28 +9889,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="s" s="12">
+      <c r="A336" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B336" t="s" s="12">
+      <c r="B336" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C336" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D336" t="s" s="12">
+      <c r="C336" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D336" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E336" t="s" s="12">
+      <c r="E336" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F336" t="s" s="12">
+      <c r="F336" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G336" t="s" s="12">
+      <c r="G336" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H336" t="s" s="12">
+      <c r="H336" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9917,28 +9935,28 @@
       </c>
     </row>
     <row r="338">
-      <c r="B338" t="s" s="12">
+      <c r="B338" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C338" t="s" s="12">
+      <c r="C338" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D338" t="s" s="12">
+      <c r="D338" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E338" t="s" s="12">
+      <c r="E338" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F338" t="s" s="12">
+      <c r="F338" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G338" t="s" s="12">
+      <c r="G338" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H338" t="s" s="12">
+      <c r="H338" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I338" t="s" s="12">
+      <c r="I338" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10026,10 +10044,10 @@
       <c r="I341">
         <f>((C341-C340)^2+(D341- D340)^2)^.5</f>
       </c>
-      <c r="J341" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K341" s="12" t="s">
+      <c r="J341" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K341" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L341" t="n">
@@ -10073,28 +10091,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="s" s="12">
+      <c r="A343" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B343" t="s" s="12">
+      <c r="B343" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C343" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D343" t="s" s="12">
+      <c r="C343" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D343" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E343" t="s" s="12">
+      <c r="E343" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F343" t="s" s="12">
+      <c r="F343" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G343" t="s" s="12">
+      <c r="G343" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H343" t="s" s="12">
+      <c r="H343" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10119,28 +10137,28 @@
       </c>
     </row>
     <row r="345">
-      <c r="B345" t="s" s="12">
+      <c r="B345" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C345" t="s" s="12">
+      <c r="C345" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D345" t="s" s="12">
+      <c r="D345" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E345" t="s" s="12">
+      <c r="E345" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F345" t="s" s="12">
+      <c r="F345" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G345" t="s" s="12">
+      <c r="G345" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H345" t="s" s="12">
+      <c r="H345" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I345" t="s" s="12">
+      <c r="I345" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10315,10 +10333,10 @@
       <c r="I351">
         <f>((C351-C350)^2+(D351- D350)^2)^.5</f>
       </c>
-      <c r="J351" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K351" s="12" t="s">
+      <c r="J351" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K351" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L351" t="n">
@@ -10362,28 +10380,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="s" s="12">
+      <c r="A353" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B353" t="s" s="12">
+      <c r="B353" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C353" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D353" t="s" s="12">
+      <c r="C353" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D353" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E353" t="s" s="12">
+      <c r="E353" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F353" t="s" s="12">
+      <c r="F353" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G353" t="s" s="12">
+      <c r="G353" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H353" t="s" s="12">
+      <c r="H353" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10408,28 +10426,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="B355" t="s" s="12">
+      <c r="B355" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C355" t="s" s="12">
+      <c r="C355" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D355" t="s" s="12">
+      <c r="D355" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E355" t="s" s="12">
+      <c r="E355" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F355" t="s" s="12">
+      <c r="F355" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G355" t="s" s="12">
+      <c r="G355" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H355" t="s" s="12">
+      <c r="H355" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I355" t="s" s="12">
+      <c r="I355" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10546,10 +10564,10 @@
       <c r="I359">
         <f>((C359-C358)^2+(D359- D358)^2)^.5</f>
       </c>
-      <c r="J359" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K359" s="12" t="s">
+      <c r="J359" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K359" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L359" t="n">
@@ -10593,28 +10611,28 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="s" s="12">
+      <c r="A361" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B361" t="s" s="12">
+      <c r="B361" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C361" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D361" t="s" s="12">
+      <c r="C361" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D361" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E361" t="s" s="12">
+      <c r="E361" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F361" t="s" s="12">
+      <c r="F361" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G361" t="s" s="12">
+      <c r="G361" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H361" t="s" s="12">
+      <c r="H361" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10639,28 +10657,28 @@
       </c>
     </row>
     <row r="363">
-      <c r="B363" t="s" s="12">
+      <c r="B363" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C363" t="s" s="12">
+      <c r="C363" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D363" t="s" s="12">
+      <c r="D363" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E363" t="s" s="12">
+      <c r="E363" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F363" t="s" s="12">
+      <c r="F363" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G363" t="s" s="12">
+      <c r="G363" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H363" t="s" s="12">
+      <c r="H363" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I363" t="s" s="12">
+      <c r="I363" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10748,10 +10766,10 @@
       <c r="I366">
         <f>((C366-C365)^2+(D366- D365)^2)^.5</f>
       </c>
-      <c r="J366" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K366" s="12" t="s">
+      <c r="J366" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K366" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L366" t="n">
@@ -10795,28 +10813,28 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="s" s="12">
+      <c r="A368" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B368" t="s" s="12">
+      <c r="B368" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C368" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D368" t="s" s="12">
+      <c r="C368" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D368" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E368" t="s" s="12">
+      <c r="E368" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F368" t="s" s="12">
+      <c r="F368" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G368" t="s" s="12">
+      <c r="G368" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H368" t="s" s="12">
+      <c r="H368" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10841,28 +10859,28 @@
       </c>
     </row>
     <row r="370">
-      <c r="B370" t="s" s="12">
+      <c r="B370" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C370" t="s" s="12">
+      <c r="C370" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D370" t="s" s="12">
+      <c r="D370" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E370" t="s" s="12">
+      <c r="E370" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F370" t="s" s="12">
+      <c r="F370" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G370" t="s" s="12">
+      <c r="G370" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H370" t="s" s="12">
+      <c r="H370" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I370" t="s" s="12">
+      <c r="I370" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10979,10 +10997,10 @@
       <c r="I374">
         <f>((C374-C373)^2+(D374- D373)^2)^.5</f>
       </c>
-      <c r="J374" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K374" s="12" t="s">
+      <c r="J374" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K374" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L374" t="n">
@@ -11026,28 +11044,28 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" t="s" s="12">
+      <c r="A376" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B376" t="s" s="12">
+      <c r="B376" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C376" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D376" t="s" s="12">
+      <c r="C376" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D376" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E376" t="s" s="12">
+      <c r="E376" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F376" t="s" s="12">
+      <c r="F376" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G376" t="s" s="12">
+      <c r="G376" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H376" t="s" s="12">
+      <c r="H376" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11072,28 +11090,28 @@
       </c>
     </row>
     <row r="378">
-      <c r="B378" t="s" s="12">
+      <c r="B378" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C378" t="s" s="12">
+      <c r="C378" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D378" t="s" s="12">
+      <c r="D378" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E378" t="s" s="12">
+      <c r="E378" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F378" t="s" s="12">
+      <c r="F378" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G378" t="s" s="12">
+      <c r="G378" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H378" t="s" s="12">
+      <c r="H378" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I378" t="s" s="12">
+      <c r="I378" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11152,10 +11170,10 @@
       <c r="I380">
         <f>((C380-C379)^2+(D380- D379)^2)^.5</f>
       </c>
-      <c r="J380" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K380" s="12" t="s">
+      <c r="J380" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K380" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L380" t="n">
@@ -11199,28 +11217,28 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="s" s="12">
+      <c r="A382" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B382" t="s" s="12">
+      <c r="B382" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C382" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D382" t="s" s="12">
+      <c r="C382" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D382" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E382" t="s" s="12">
+      <c r="E382" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F382" t="s" s="12">
+      <c r="F382" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G382" t="s" s="12">
+      <c r="G382" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H382" t="s" s="12">
+      <c r="H382" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11245,28 +11263,28 @@
       </c>
     </row>
     <row r="384">
-      <c r="B384" t="s" s="12">
+      <c r="B384" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C384" t="s" s="12">
+      <c r="C384" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D384" t="s" s="12">
+      <c r="D384" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E384" t="s" s="12">
+      <c r="E384" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F384" t="s" s="12">
+      <c r="F384" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G384" t="s" s="12">
+      <c r="G384" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H384" t="s" s="12">
+      <c r="H384" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I384" t="s" s="12">
+      <c r="I384" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11325,10 +11343,10 @@
       <c r="I386">
         <f>((C386-C385)^2+(D386- D385)^2)^.5</f>
       </c>
-      <c r="J386" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K386" s="12" t="s">
+      <c r="J386" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K386" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L386" t="n">
@@ -11372,28 +11390,28 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="s" s="12">
+      <c r="A388" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B388" t="s" s="12">
+      <c r="B388" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C388" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D388" t="s" s="12">
+      <c r="C388" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D388" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E388" t="s" s="12">
+      <c r="E388" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F388" t="s" s="12">
+      <c r="F388" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G388" t="s" s="12">
+      <c r="G388" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H388" t="s" s="12">
+      <c r="H388" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11418,28 +11436,28 @@
       </c>
     </row>
     <row r="390">
-      <c r="B390" t="s" s="12">
+      <c r="B390" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C390" t="s" s="12">
+      <c r="C390" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D390" t="s" s="12">
+      <c r="D390" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E390" t="s" s="12">
+      <c r="E390" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F390" t="s" s="12">
+      <c r="F390" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G390" t="s" s="12">
+      <c r="G390" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H390" t="s" s="12">
+      <c r="H390" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I390" t="s" s="12">
+      <c r="I390" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11498,10 +11516,10 @@
       <c r="I392">
         <f>((C392-C391)^2+(D392- D391)^2)^.5</f>
       </c>
-      <c r="J392" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K392" s="12" t="s">
+      <c r="J392" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K392" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L392" t="n">
@@ -11545,28 +11563,28 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="s" s="12">
+      <c r="A394" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B394" t="s" s="12">
+      <c r="B394" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C394" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D394" t="s" s="12">
+      <c r="C394" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D394" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E394" t="s" s="12">
+      <c r="E394" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F394" t="s" s="12">
+      <c r="F394" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G394" t="s" s="12">
+      <c r="G394" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H394" t="s" s="12">
+      <c r="H394" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11591,28 +11609,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="B396" t="s" s="12">
+      <c r="B396" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C396" t="s" s="12">
+      <c r="C396" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D396" t="s" s="12">
+      <c r="D396" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E396" t="s" s="12">
+      <c r="E396" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F396" t="s" s="12">
+      <c r="F396" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G396" t="s" s="12">
+      <c r="G396" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H396" t="s" s="12">
+      <c r="H396" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I396" t="s" s="12">
+      <c r="I396" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11729,10 +11747,10 @@
       <c r="I400">
         <f>((C400-C399)^2+(D400- D399)^2)^.5</f>
       </c>
-      <c r="J400" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K400" s="12" t="s">
+      <c r="J400" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K400" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L400" t="n">
@@ -11776,28 +11794,28 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="s" s="12">
+      <c r="A402" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B402" t="s" s="12">
+      <c r="B402" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C402" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D402" t="s" s="12">
+      <c r="C402" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D402" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E402" t="s" s="12">
+      <c r="E402" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F402" t="s" s="12">
+      <c r="F402" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G402" t="s" s="12">
+      <c r="G402" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H402" t="s" s="12">
+      <c r="H402" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11822,28 +11840,28 @@
       </c>
     </row>
     <row r="404">
-      <c r="B404" t="s" s="12">
+      <c r="B404" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C404" t="s" s="12">
+      <c r="C404" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D404" t="s" s="12">
+      <c r="D404" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E404" t="s" s="12">
+      <c r="E404" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F404" t="s" s="12">
+      <c r="F404" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G404" t="s" s="12">
+      <c r="G404" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H404" t="s" s="12">
+      <c r="H404" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I404" t="s" s="12">
+      <c r="I404" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11902,10 +11920,10 @@
       <c r="I406">
         <f>((C406-C405)^2+(D406- D405)^2)^.5</f>
       </c>
-      <c r="J406" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K406" s="12" t="s">
+      <c r="J406" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K406" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L406" t="n">
@@ -11949,28 +11967,28 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="s" s="12">
+      <c r="A408" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B408" t="s" s="12">
+      <c r="B408" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C408" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D408" t="s" s="12">
+      <c r="C408" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D408" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E408" t="s" s="12">
+      <c r="E408" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F408" t="s" s="12">
+      <c r="F408" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G408" t="s" s="12">
+      <c r="G408" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H408" t="s" s="12">
+      <c r="H408" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11995,28 +12013,28 @@
       </c>
     </row>
     <row r="410">
-      <c r="B410" t="s" s="12">
+      <c r="B410" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C410" t="s" s="12">
+      <c r="C410" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D410" t="s" s="12">
+      <c r="D410" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E410" t="s" s="12">
+      <c r="E410" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F410" t="s" s="12">
+      <c r="F410" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G410" t="s" s="12">
+      <c r="G410" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H410" t="s" s="12">
+      <c r="H410" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I410" t="s" s="12">
+      <c r="I410" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12162,10 +12180,10 @@
       <c r="I415">
         <f>((C415-C414)^2+(D415- D414)^2)^.5</f>
       </c>
-      <c r="J415" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K415" s="12" t="s">
+      <c r="J415" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K415" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L415" t="n">
@@ -12209,28 +12227,28 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" t="s" s="12">
+      <c r="A417" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B417" t="s" s="12">
+      <c r="B417" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C417" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D417" t="s" s="12">
+      <c r="C417" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D417" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E417" t="s" s="12">
+      <c r="E417" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F417" t="s" s="12">
+      <c r="F417" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G417" t="s" s="12">
+      <c r="G417" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H417" t="s" s="12">
+      <c r="H417" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12255,28 +12273,28 @@
       </c>
     </row>
     <row r="419">
-      <c r="B419" t="s" s="12">
+      <c r="B419" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C419" t="s" s="12">
+      <c r="C419" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D419" t="s" s="12">
+      <c r="D419" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E419" t="s" s="12">
+      <c r="E419" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F419" t="s" s="12">
+      <c r="F419" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G419" t="s" s="12">
+      <c r="G419" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H419" t="s" s="12">
+      <c r="H419" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I419" t="s" s="12">
+      <c r="I419" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12335,10 +12353,10 @@
       <c r="I421">
         <f>((C421-C420)^2+(D421- D420)^2)^.5</f>
       </c>
-      <c r="J421" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K421" s="12" t="s">
+      <c r="J421" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K421" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L421" t="n">
